--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="392">
   <si>
     <t>英文名</t>
   </si>
   <si>
+    <t>英文名缩写</t>
+  </si>
+  <si>
     <t>中文名</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>Avenger Stalker</t>
   </si>
   <si>
+    <t>avenger_stalker</t>
+  </si>
+  <si>
     <t>泰坦追猎、追猎</t>
   </si>
   <si>
@@ -43,108 +49,162 @@
     <t>Avenger Titan</t>
   </si>
   <si>
-    <t>泰坦、复仇泰坦、复仇者泰坦</t>
+    <t>avenger_titan</t>
+  </si>
+  <si>
+    <t>复仇者泰坦、泰坦、复仇泰坦</t>
   </si>
   <si>
     <t>Avenger Warlock</t>
   </si>
   <si>
+    <t>avenger_warlock</t>
+  </si>
+  <si>
     <t>复仇者术士、术士、复仇术士</t>
   </si>
   <si>
     <t>Avenger Titan Renegade</t>
   </si>
   <si>
+    <t>avenger_titan_renegade</t>
+  </si>
+  <si>
     <t>泰坦变节者、复仇泰坦变节者、复仇者泰坦变节者</t>
   </si>
   <si>
     <t>Eclipse</t>
   </si>
   <si>
+    <t>eclipse</t>
+  </si>
+  <si>
     <t>日蚀、日食</t>
   </si>
   <si>
     <t>Gladius</t>
   </si>
   <si>
+    <t>gladius</t>
+  </si>
+  <si>
     <t>短剑</t>
   </si>
   <si>
     <t>Gladius Valiant</t>
   </si>
   <si>
+    <t>gladius_valiant</t>
+  </si>
+  <si>
     <t>短剑英勇</t>
   </si>
   <si>
     <t>Hammerhead</t>
   </si>
   <si>
+    <t>hammerhead</t>
+  </si>
+  <si>
     <t>锤头鲨、脆脆鲨</t>
   </si>
   <si>
     <t>Reclaimer</t>
   </si>
   <si>
+    <t>reclaimer</t>
+  </si>
+  <si>
     <t>回收者、再生者</t>
   </si>
   <si>
     <t>Redeemer</t>
   </si>
   <si>
+    <t>redeemer</t>
+  </si>
+  <si>
     <t>救赎</t>
   </si>
   <si>
     <t>Retaliator Bomber</t>
   </si>
   <si>
+    <t>retaliator</t>
+  </si>
+  <si>
     <t>报复轰炸</t>
   </si>
   <si>
     <t>Sabre</t>
   </si>
   <si>
+    <t>sabre</t>
+  </si>
+  <si>
     <t>军刀</t>
   </si>
   <si>
     <t>Sabre Comet</t>
   </si>
   <si>
+    <t>sabre_comet</t>
+  </si>
+  <si>
     <t>军刀彗星</t>
   </si>
   <si>
     <t>Sabre Raven</t>
   </si>
   <si>
+    <t>sabre_raven</t>
+  </si>
+  <si>
     <t>军刀渡鸦、渡鸦</t>
   </si>
   <si>
     <t>Vanguard Harbinger</t>
   </si>
   <si>
+    <t>vanguard_harbinger</t>
+  </si>
+  <si>
     <t>先锋先驱</t>
   </si>
   <si>
     <t>Vanguard Hoplite</t>
   </si>
   <si>
+    <t>vanguard_hoplite</t>
+  </si>
+  <si>
     <t>先锋重装</t>
   </si>
   <si>
     <t>Vanguard Sentinel</t>
   </si>
   <si>
+    <t>vanguard_sentinel</t>
+  </si>
+  <si>
     <t>先锋哨兵</t>
   </si>
   <si>
     <t>Vanguard Warden</t>
   </si>
   <si>
+    <t>vanguard_warden</t>
+  </si>
+  <si>
     <t>先锋典狱长</t>
   </si>
   <si>
     <t>Arrow</t>
   </si>
   <si>
+    <t>arrow</t>
+  </si>
+  <si>
     <t>箭矢、箭头</t>
   </si>
   <si>
@@ -157,126 +217,153 @@
     <t>C8 Pisces</t>
   </si>
   <si>
+    <t>c8_pisces</t>
+  </si>
+  <si>
     <t>C8双鱼座、C8</t>
   </si>
   <si>
     <t>C8R Pisces Rescue</t>
   </si>
   <si>
+    <t>c8r_pisces</t>
+  </si>
+  <si>
     <t>C8R双鱼座救援、C8R</t>
   </si>
   <si>
     <t>C8X Pisces Expedition</t>
   </si>
   <si>
+    <t>c8x_pisces_expedition</t>
+  </si>
+  <si>
     <t>C8X双鱼座远征、C8X</t>
   </si>
   <si>
     <t>Carrack</t>
   </si>
   <si>
+    <t>carrack</t>
+  </si>
+  <si>
     <t>克拉克</t>
   </si>
   <si>
-    <t>F7A Hornet</t>
-  </si>
-  <si>
-    <t>F7A大黄蜂、F7A</t>
-  </si>
-  <si>
-    <t>F7A Hornet Mk II</t>
-  </si>
-  <si>
-    <t>F7A大黄蜂MKII</t>
-  </si>
-  <si>
     <t>F7C Hornet</t>
   </si>
   <si>
+    <t>hornet_f7c</t>
+  </si>
+  <si>
     <t>F7C大黄蜂、F7C</t>
   </si>
   <si>
     <t>F7C-M Super Hornet</t>
   </si>
   <si>
+    <t>hornet_f7cm</t>
+  </si>
+  <si>
     <t>F7C-M超级大黄蜂、F7C-M</t>
   </si>
   <si>
     <t>F7C-R Hornet Tracker</t>
   </si>
   <si>
+    <t>hornet_f7cr</t>
+  </si>
+  <si>
     <t>F7C-R大黄蜂追踪者、F7C-R</t>
   </si>
   <si>
     <t>F7C-S Hornet Ghost</t>
   </si>
   <si>
+    <t>hornet_f7cs</t>
+  </si>
+  <si>
     <t>F7C-S大黄蜂幽灵、F7C-S</t>
   </si>
   <si>
-    <t>F8A Lightning</t>
-  </si>
-  <si>
-    <t>F8A闪电、F8A</t>
-  </si>
-  <si>
-    <t>F8C Lightning</t>
-  </si>
-  <si>
-    <t>F8C闪电、F8C</t>
-  </si>
-  <si>
     <t>Gladiator</t>
   </si>
   <si>
+    <t>gladiator</t>
+  </si>
+  <si>
     <t>角斗士</t>
   </si>
   <si>
     <t>Hawk</t>
   </si>
   <si>
+    <t>hawk</t>
+  </si>
+  <si>
     <t>猎鹰、鹰、小鹰</t>
   </si>
   <si>
     <t>Hurricane</t>
   </si>
   <si>
+    <t>hurricane</t>
+  </si>
+  <si>
     <t>飓风</t>
   </si>
   <si>
     <t>Terrapin</t>
   </si>
   <si>
+    <t>terrapin</t>
+  </si>
+  <si>
     <t>水龟</t>
   </si>
   <si>
     <t>Valkyrie</t>
   </si>
   <si>
+    <t>valkyrie</t>
+  </si>
+  <si>
     <t>女武神、瓦尔基里</t>
   </si>
   <si>
     <t>Ballista</t>
   </si>
   <si>
+    <t>ballista</t>
+  </si>
+  <si>
     <t>弩炮</t>
   </si>
   <si>
     <t>Centurion</t>
   </si>
   <si>
+    <t>centurion</t>
+  </si>
+  <si>
     <t>百夫长</t>
   </si>
   <si>
     <t>Spartan</t>
   </si>
   <si>
+    <t>spartan</t>
+  </si>
+  <si>
     <t>斯巴达</t>
   </si>
   <si>
     <t>Khartu-al</t>
   </si>
   <si>
+    <t>scout</t>
+  </si>
+  <si>
     <t>卡图</t>
   </si>
   <si>
@@ -289,12 +376,18 @@
     <t>Nox</t>
   </si>
   <si>
+    <t>nox</t>
+  </si>
+  <si>
     <t>Nox、诺克斯</t>
   </si>
   <si>
     <t>MOLE</t>
   </si>
   <si>
+    <t>mole</t>
+  </si>
+  <si>
     <t>鼹鼠</t>
   </si>
   <si>
@@ -307,24 +400,27 @@
     <t>MPUV Cargo</t>
   </si>
   <si>
+    <t>mpuv</t>
+  </si>
+  <si>
     <t>MPUV货运</t>
   </si>
   <si>
-    <t>MPUV </t>
-  </si>
-  <si>
-    <t>MPUV载人</t>
-  </si>
-  <si>
     <t>RAFT</t>
   </si>
   <si>
+    <t>raft</t>
+  </si>
+  <si>
     <t>木筏</t>
   </si>
   <si>
     <t>Defender</t>
   </si>
   <si>
+    <t>defender</t>
+  </si>
+  <si>
     <t>防卫者、巴努防卫者、巴卫、巴努卫士</t>
   </si>
   <si>
@@ -337,6 +433,9 @@
     <t>HoverQuad</t>
   </si>
   <si>
+    <t>hoverquad</t>
+  </si>
+  <si>
     <t>悬浮驷、悬浮摩托、悬浮四边形、悬停四边形</t>
   </si>
   <si>
@@ -349,42 +448,63 @@
     <t>Mustang Alpha</t>
   </si>
   <si>
+    <t>mustang_alpha</t>
+  </si>
+  <si>
     <t>野马阿尔法</t>
   </si>
   <si>
     <t>Mustang Beta</t>
   </si>
   <si>
+    <t>mustang_beta</t>
+  </si>
+  <si>
     <t>野马贝塔</t>
   </si>
   <si>
     <t>Mustang Delta</t>
   </si>
   <si>
+    <t>mustang_delta</t>
+  </si>
+  <si>
     <t>野马德尔塔</t>
   </si>
   <si>
     <t>Mustang Gamma</t>
   </si>
   <si>
+    <t>mustang_gamma</t>
+  </si>
+  <si>
     <t>野马伽马</t>
   </si>
   <si>
     <t>Mustang Omega</t>
   </si>
   <si>
+    <t>mustang_omega</t>
+  </si>
+  <si>
     <t>野马欧米伽</t>
   </si>
   <si>
     <t>Nomad</t>
   </si>
   <si>
+    <t>nomad</t>
+  </si>
+  <si>
     <t>游牧</t>
   </si>
   <si>
     <t>A2 Hercules Starlifter</t>
   </si>
   <si>
+    <t>starlifter_a2</t>
+  </si>
+  <si>
     <t>大力神A2、A2</t>
   </si>
   <si>
@@ -397,36 +517,54 @@
     <t>Ares Star Fighter Inferno</t>
   </si>
   <si>
+    <t>starfighter_inferno</t>
+  </si>
+  <si>
     <t>战神地狱火、黑战神</t>
   </si>
   <si>
     <t>Ares Star Fighter Ion</t>
   </si>
   <si>
+    <t>starfighter_ion</t>
+  </si>
+  <si>
     <t>战神离子光、白战神</t>
   </si>
   <si>
     <t>C2 Hercules Starlifter</t>
   </si>
   <si>
+    <t>starlifter_c2</t>
+  </si>
+  <si>
     <t>大力神C2、C2</t>
   </si>
   <si>
     <t>M2 Hercules Starlifter</t>
   </si>
   <si>
+    <t>starlifter_m2</t>
+  </si>
+  <si>
     <t>大力神M2、M2</t>
   </si>
   <si>
     <t>Mercury Star Runner</t>
   </si>
   <si>
+    <t>star_runner</t>
+  </si>
+  <si>
     <t>墨丘利星际快运船、墨丘利、水星</t>
   </si>
   <si>
     <t>Buccaneer</t>
   </si>
   <si>
+    <t>buccaneer</t>
+  </si>
+  <si>
     <t>掠夺者</t>
   </si>
   <si>
@@ -439,72 +577,99 @@
     <t>Caterpillar</t>
   </si>
   <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
     <t>毛虫、毛毛虫</t>
   </si>
   <si>
     <t>Corsair</t>
   </si>
   <si>
+    <t>corsair</t>
+  </si>
+  <si>
     <t>海盗船</t>
   </si>
   <si>
     <t>Cutlass Black</t>
   </si>
   <si>
+    <t>cutlass_black</t>
+  </si>
+  <si>
     <t>黑弯刀</t>
   </si>
   <si>
     <t>Cutlass Blue</t>
   </si>
   <si>
+    <t>cutlass_blue</t>
+  </si>
+  <si>
     <t>蓝弯刀</t>
   </si>
   <si>
     <t>Cutlass Red</t>
   </si>
   <si>
+    <t>cutlass_red</t>
+  </si>
+  <si>
     <t>红弯刀</t>
   </si>
   <si>
     <t>Cutlass Steel</t>
   </si>
   <si>
+    <t>cutlass_steel</t>
+  </si>
+  <si>
     <t>钢弯刀</t>
   </si>
   <si>
     <t>Cutter</t>
   </si>
   <si>
+    <t>cutter</t>
+  </si>
+  <si>
     <t>小刀、卡特</t>
   </si>
   <si>
     <t>Dragonfly</t>
   </si>
   <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
     <t>蜻蜓</t>
   </si>
   <si>
     <t>Herald</t>
   </si>
   <si>
+    <t>herald</t>
+  </si>
+  <si>
     <t>信使</t>
   </si>
   <si>
     <t>Vulture</t>
   </si>
   <si>
+    <t>vulture</t>
+  </si>
+  <si>
     <t>秃鹫</t>
   </si>
   <si>
-    <t>Mule</t>
-  </si>
-  <si>
-    <t>骡</t>
-  </si>
-  <si>
     <t>Blade (replica)</t>
   </si>
   <si>
+    <t>blade</t>
+  </si>
+  <si>
     <t>刀锋</t>
   </si>
   <si>
@@ -517,15 +682,24 @@
     <t>Glaive (replica)</t>
   </si>
   <si>
+    <t>glaive</t>
+  </si>
+  <si>
     <t>长刀</t>
   </si>
   <si>
     <t>Prowler</t>
   </si>
   <si>
+    <t>prowler</t>
+  </si>
+  <si>
     <t>徘徊</t>
   </si>
   <si>
+    <t>espr</t>
+  </si>
+  <si>
     <t>Talon</t>
   </si>
   <si>
@@ -535,12 +709,18 @@
     <t>Talon Shrike</t>
   </si>
   <si>
+    <t>talon_shrike</t>
+  </si>
+  <si>
     <t>利爪伯劳、伯劳鸟、导弹鸟</t>
   </si>
   <si>
     <t>P-52 Merlin</t>
   </si>
   <si>
+    <t>p52_merlin</t>
+  </si>
+  <si>
     <t>梅林、p52、P52梅林</t>
   </si>
   <si>
@@ -553,12 +733,18 @@
     <t>P-72 Archimedes</t>
   </si>
   <si>
+    <t>p72_archimedes</t>
+  </si>
+  <si>
     <t>阿基米德、P72、P72阿基米德</t>
   </si>
   <si>
     <t>Freelancer</t>
   </si>
   <si>
+    <t>freelancer</t>
+  </si>
+  <si>
     <t>自由枪骑兵、自由</t>
   </si>
   <si>
@@ -571,84 +757,126 @@
     <t>Freelancer DUR</t>
   </si>
   <si>
+    <t>freelancer_dur</t>
+  </si>
+  <si>
     <t>自由枪骑兵DUR、自由DUR</t>
   </si>
   <si>
     <t>Freelancer MAX</t>
   </si>
   <si>
+    <t>freelancer_max</t>
+  </si>
+  <si>
     <t>自由枪骑兵MAX、自由MAX</t>
   </si>
   <si>
     <t>Freelancer MIS</t>
   </si>
   <si>
+    <t>freelancer_mis</t>
+  </si>
+  <si>
     <t>自由枪骑兵MIS、自由MIS</t>
   </si>
   <si>
     <t>Hull A</t>
   </si>
   <si>
+    <t>hull_a</t>
+  </si>
+  <si>
     <t>货轮-A</t>
   </si>
   <si>
     <t>Prospector</t>
   </si>
   <si>
+    <t>prospector</t>
+  </si>
+  <si>
     <t>勘探者、小矿</t>
   </si>
   <si>
     <t>Razor</t>
   </si>
   <si>
+    <t>razor</t>
+  </si>
+  <si>
     <t>剃刀</t>
   </si>
   <si>
     <t>Razor EX</t>
   </si>
   <si>
+    <t>razor_ex</t>
+  </si>
+  <si>
     <t>剃刀-EX</t>
   </si>
   <si>
     <t>Razor LX</t>
   </si>
   <si>
+    <t>razor_lx</t>
+  </si>
+  <si>
     <t>剃刀-LX</t>
   </si>
   <si>
     <t>Reliant Kore</t>
   </si>
   <si>
+    <t>reliant</t>
+  </si>
+  <si>
     <t>信赖基础</t>
   </si>
   <si>
     <t>Reliant Mako</t>
   </si>
   <si>
+    <t>reliant_mako</t>
+  </si>
+  <si>
     <t>信赖新闻</t>
   </si>
   <si>
     <t>Reliant Sen</t>
   </si>
   <si>
+    <t>reliant_sen</t>
+  </si>
+  <si>
     <t>信赖科考</t>
   </si>
   <si>
     <t>Reliant Tana</t>
   </si>
   <si>
+    <t>reliant_tana</t>
+  </si>
+  <si>
     <t>信赖武装</t>
   </si>
   <si>
     <t>Starfarer</t>
   </si>
   <si>
+    <t>starfarer</t>
+  </si>
+  <si>
     <t>星际远航者、民油、油船</t>
   </si>
   <si>
     <t>Starfarer Gemini</t>
   </si>
   <si>
+    <t>starfarer_Gemini</t>
+  </si>
+  <si>
     <t>星际远航者双子座、双子座、军油</t>
   </si>
   <si>
@@ -685,30 +913,48 @@
     <t>600i Explorer</t>
   </si>
   <si>
+    <t>600i</t>
+  </si>
+  <si>
     <t>600i探索</t>
   </si>
   <si>
     <t>600i Touring</t>
   </si>
   <si>
+    <t>600i_touring</t>
+  </si>
+  <si>
     <t>600i旅游</t>
   </si>
   <si>
     <t>85X</t>
   </si>
   <si>
+    <t>85x</t>
+  </si>
+  <si>
     <t>890 Jump</t>
   </si>
   <si>
+    <t>890jump</t>
+  </si>
+  <si>
     <t>890跃动、890</t>
   </si>
   <si>
     <t>M50</t>
   </si>
   <si>
+    <t>m50</t>
+  </si>
+  <si>
     <t>Aurora CL</t>
   </si>
   <si>
+    <t>aurora_cl</t>
+  </si>
+  <si>
     <t>极光CL</t>
   </si>
   <si>
@@ -721,78 +967,117 @@
     <t>Aurora ES</t>
   </si>
   <si>
+    <t>aurora_es</t>
+  </si>
+  <si>
     <t>极光ES</t>
   </si>
   <si>
     <t>Aurora LN</t>
   </si>
   <si>
+    <t>aurora_ln</t>
+  </si>
+  <si>
     <t>极光LN</t>
   </si>
   <si>
     <t>Aurora LX</t>
   </si>
   <si>
+    <t>aurora_lx</t>
+  </si>
+  <si>
     <t>极光LX</t>
   </si>
   <si>
     <t>Aurora MR</t>
   </si>
   <si>
+    <t>aurora_mr</t>
+  </si>
+  <si>
     <t>极光MR</t>
   </si>
   <si>
     <t>Constellation Andromeda</t>
   </si>
   <si>
+    <t>constellation_andromeda</t>
+  </si>
+  <si>
     <t>星座仙女座、仙女、仙女座</t>
   </si>
   <si>
     <t>Constellation Aquila</t>
   </si>
   <si>
+    <t>constellation_Aquila</t>
+  </si>
+  <si>
     <t>星座天鹰座、天鹰、天鹰座</t>
   </si>
   <si>
     <t>Constellation Phoenix</t>
   </si>
   <si>
+    <t>constellation_Phoenix</t>
+  </si>
+  <si>
     <t>星座凤凰座、凤凰、凤凰座</t>
   </si>
   <si>
     <t>Constellation Taurus</t>
   </si>
   <si>
+    <t>constellation_Taurus</t>
+  </si>
+  <si>
     <t>星座金牛座、金牛、金牛座</t>
   </si>
   <si>
     <t>Mantis</t>
   </si>
   <si>
+    <t>mantis</t>
+  </si>
+  <si>
     <t>螳螂</t>
   </si>
   <si>
     <t>Scorpius</t>
   </si>
   <si>
+    <t>scorpius</t>
+  </si>
+  <si>
     <t>天蝎座、天蝎</t>
   </si>
   <si>
     <t>Scorpius Antares</t>
   </si>
   <si>
+    <t>scorpius_Antares</t>
+  </si>
+  <si>
     <t>天蝎座蝎心、蝎心、星宿二、天蝎座星宿二、电蝎</t>
   </si>
   <si>
     <t>Ursa</t>
   </si>
   <si>
+    <t>ursa_rover</t>
+  </si>
+  <si>
     <t>大熊座</t>
   </si>
   <si>
     <t>Scythe</t>
   </si>
   <si>
+    <t>scythe</t>
+  </si>
+  <si>
     <t>死镰</t>
   </si>
   <si>
@@ -802,6 +1087,9 @@
     <t>PTV</t>
   </si>
   <si>
+    <t>ptv</t>
+  </si>
+  <si>
     <t>PTV、老头乐</t>
   </si>
   <si>
@@ -814,21 +1102,33 @@
     <t>ROC</t>
   </si>
   <si>
+    <t>roc</t>
+  </si>
+  <si>
     <t>ROC、矿车</t>
   </si>
   <si>
     <t>ROC-DS</t>
   </si>
   <si>
+    <t>roc_ds</t>
+  </si>
+  <si>
     <t>ROC-DS、双人矿车</t>
   </si>
   <si>
     <t>STV</t>
   </si>
   <si>
+    <t>stv</t>
+  </si>
+  <si>
     <t>Cyclone</t>
   </si>
   <si>
+    <t>cyclone</t>
+  </si>
+  <si>
     <t>旋风</t>
   </si>
   <si>
@@ -841,34 +1141,52 @@
     <t>Cyclone AA</t>
   </si>
   <si>
+    <t>cyclone_aa</t>
+  </si>
+  <si>
     <t>旋风AA</t>
   </si>
   <si>
     <t>Cyclone MT</t>
   </si>
   <si>
+    <t>cyclone_mt</t>
+  </si>
+  <si>
     <t>旋风MT</t>
   </si>
   <si>
     <t>Cyclone RC</t>
   </si>
   <si>
+    <t>cyclone_rc</t>
+  </si>
+  <si>
     <t>旋风RC</t>
   </si>
   <si>
     <t>Cyclone RN</t>
   </si>
   <si>
+    <t>cyclone_rn</t>
+  </si>
+  <si>
     <t>旋风RN</t>
   </si>
   <si>
     <t>Cyclone TR</t>
   </si>
   <si>
+    <t>cyclone_tr</t>
+  </si>
+  <si>
     <t>旋风TR</t>
   </si>
   <si>
     <t>Nova</t>
+  </si>
+  <si>
+    <t>nova</t>
   </si>
   <si>
     <t>新星、新星坦克</t>
@@ -879,10 +1197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -928,26 +1246,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,46 +1271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,10 +1286,56 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,16 +1346,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,7 +1390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1426,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,25 +1528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,97 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,15 +1581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1283,51 +1592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,144 +1615,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,12 +1828,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1839,20 +2151,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D132"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.1057692307692" customWidth="1"/>
     <col min="2" max="2" width="37.9711538461538" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,1937 +2177,2231 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:4">
+    </row>
+    <row r="31" ht="17" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" ht="17" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" ht="17.6" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" ht="17.6" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" ht="17.6" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" ht="17.6" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" ht="17.6" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" ht="17.6" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" ht="17.6" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" ht="17.6" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" ht="17.6" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" ht="17.6" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" ht="17.6" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" ht="17.6" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" ht="17.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" ht="17.6" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" ht="17.6" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" ht="17.6" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" ht="17.6" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" ht="17.6" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" ht="17.6" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" ht="17.6" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" ht="17.6" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" ht="17.6" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" ht="17.6" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" ht="17.6" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" ht="17.6" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" ht="17.6" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" ht="17.6" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" ht="17.6" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" ht="17.6" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" ht="17.6" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" ht="17.6" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="E69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" ht="17.6" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" ht="17.6" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" ht="17.6" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" ht="17.6" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="E71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" ht="17.6" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" ht="17.6" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" ht="17.6" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" ht="17.6" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" ht="17.6" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" ht="17.6" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" ht="17.6" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" ht="17.6" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" ht="17.6" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" ht="17.6" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" ht="17.6" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" ht="17.6" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" ht="17.6" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" ht="17.6" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" ht="17.6" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" ht="17.6" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" ht="17.6" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E86" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" ht="17.6" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" ht="17.6" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" ht="17.6" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" ht="17.6" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" ht="17.6" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" ht="17.6" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" ht="17.6" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" ht="17.6" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" ht="17.6" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" ht="17.6" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" ht="17.6" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E96" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" ht="17.6" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" ht="17.6" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" ht="17.6" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" ht="17.6" spans="1:4">
+        <v>289</v>
+      </c>
+      <c r="E99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" ht="17.6" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" ht="17.6" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" ht="17.6" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" ht="17.6" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" ht="17.6" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" ht="17.6" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" ht="17.6" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" ht="34" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" ht="34" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E108" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" ht="34" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" ht="34" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" ht="17.6" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" ht="17.6" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" ht="51" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" ht="17.6" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" ht="17.6" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" ht="17.6" spans="1:4">
-      <c r="A101" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" ht="17.6" spans="1:4">
-      <c r="A102" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" ht="17.6" spans="1:4">
-      <c r="A103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" ht="17.6" spans="1:4">
-      <c r="A104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" ht="17.6" spans="1:4">
-      <c r="A105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" ht="17.6" spans="1:4">
-      <c r="A106" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" ht="17.6" spans="1:4">
-      <c r="A107" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" ht="17.6" spans="1:4">
-      <c r="A108" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" ht="17.6" spans="1:4">
-      <c r="A109" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="110" ht="17.6" spans="1:4">
-      <c r="A110" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" ht="17.6" spans="1:4">
-      <c r="A111" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" ht="17.6" spans="1:4">
-      <c r="A112" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="113" ht="17.6" spans="1:4">
-      <c r="A113" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" ht="17.6" spans="1:4">
-      <c r="A114" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" ht="17.6" spans="1:4">
-      <c r="A115" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" ht="17.6" spans="1:4">
+      <c r="E115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" ht="17.6" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>232</v>
+        <v>357</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" ht="17.6" spans="1:4">
+        <v>359</v>
+      </c>
+      <c r="E116" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" ht="17.6" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>232</v>
+        <v>362</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" ht="17.6" spans="1:4">
+        <v>359</v>
+      </c>
+      <c r="E117" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" ht="17.6" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>232</v>
+        <v>365</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" ht="17.6" spans="1:4">
+        <v>359</v>
+      </c>
+      <c r="E118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" ht="17.6" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>232</v>
+        <v>368</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" ht="17.6" spans="1:4">
+        <v>359</v>
+      </c>
+      <c r="E119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" ht="17.6" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>232</v>
+        <v>370</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E120" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" ht="17.6" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="122" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E121" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" ht="17.6" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="123" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E122" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" ht="17.6" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E123" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" ht="17.6" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="125" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E124" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" ht="17.6" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>269</v>
+        <v>387</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" ht="17.6" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="E125" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" ht="17.6" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>273</v>
+        <v>372</v>
+      </c>
+      <c r="E126" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="127" ht="17.6" spans="1:4">
-      <c r="A127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" ht="17.6" spans="1:4">
-      <c r="A128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" ht="17.6" spans="1:4">
-      <c r="A129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" ht="17.6" spans="1:4">
-      <c r="A130" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" ht="17.6" spans="1:4">
-      <c r="A131" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" ht="17.6" spans="1:4">
-      <c r="A132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="133" ht="17.6" spans="1:4">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" ht="17.6" spans="1:4">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="13520"/>
+    <workbookView windowHeight="17120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="403">
   <si>
     <t>英文名</t>
   </si>
@@ -37,7 +37,7 @@
     <t>avenger_stalker</t>
   </si>
   <si>
-    <t>泰坦追猎、追猎</t>
+    <t>复仇潜行者、泰坦追猎、追猎</t>
   </si>
   <si>
     <t>aegs</t>
@@ -52,7 +52,7 @@
     <t>avenger_titan</t>
   </si>
   <si>
-    <t>复仇者泰坦、泰坦、复仇泰坦</t>
+    <t>复仇泰坦、复仇者泰坦、泰坦</t>
   </si>
   <si>
     <t>Avenger Warlock</t>
@@ -70,7 +70,7 @@
     <t>avenger_titan_renegade</t>
   </si>
   <si>
-    <t>泰坦变节者、复仇泰坦变节者、复仇者泰坦变节者</t>
+    <t>泰坦泰坦叛徒、泰坦变节者、复仇泰坦变节者、复仇者泰坦变节者</t>
   </si>
   <si>
     <t>Eclipse</t>
@@ -97,7 +97,7 @@
     <t>gladius_valiant</t>
   </si>
   <si>
-    <t>短剑英勇</t>
+    <t>短剑勇士</t>
   </si>
   <si>
     <t>Hammerhead</t>
@@ -124,7 +124,7 @@
     <t>redeemer</t>
   </si>
   <si>
-    <t>救赎</t>
+    <t>救赎、救赎者</t>
   </si>
   <si>
     <t>Retaliator Bomber</t>
@@ -265,7 +265,7 @@
     <t>hornet_f7cm</t>
   </si>
   <si>
-    <t>F7C-M超级大黄蜂、F7C-M</t>
+    <t>F7C-M超级大黄蜂、F7C-M、F7CM</t>
   </si>
   <si>
     <t>F7C-R Hornet Tracker</t>
@@ -274,7 +274,7 @@
     <t>hornet_f7cr</t>
   </si>
   <si>
-    <t>F7C-R大黄蜂追踪者、F7C-R</t>
+    <t>F7C-R大黄蜂追踪者、F7C-R、F7CR</t>
   </si>
   <si>
     <t>F7C-S Hornet Ghost</t>
@@ -283,7 +283,7 @@
     <t>hornet_f7cs</t>
   </si>
   <si>
-    <t>F7C-S大黄蜂幽灵、F7C-S</t>
+    <t>F7C-S大黄蜂幽灵、F7C-S、F7CS</t>
   </si>
   <si>
     <t>Gladiator</t>
@@ -403,7 +403,16 @@
     <t>mpuv</t>
   </si>
   <si>
-    <t>MPUV货运</t>
+    <t>MPUV货运、MPUV运输</t>
+  </si>
+  <si>
+    <t>MPUV Personnel</t>
+  </si>
+  <si>
+    <t>mpuv_transport</t>
+  </si>
+  <si>
+    <t>MPUV载人</t>
   </si>
   <si>
     <t>RAFT</t>
@@ -421,7 +430,7 @@
     <t>defender</t>
   </si>
   <si>
-    <t>防卫者、巴努防卫者、巴卫、巴努卫士</t>
+    <t>巴努防御者、防卫者、巴卫、巴努卫士</t>
   </si>
   <si>
     <t>banu</t>
@@ -436,7 +445,7 @@
     <t>hoverquad</t>
   </si>
   <si>
-    <t>悬浮驷、悬浮摩托、悬浮四边形、悬停四边形</t>
+    <t>悬浮摩托、悬浮驷、悬浮四边形、悬停四边形</t>
   </si>
   <si>
     <t>cnou</t>
@@ -556,7 +565,7 @@
     <t>star_runner</t>
   </si>
   <si>
-    <t>墨丘利星际快运船、墨丘利、水星</t>
+    <t>水星、墨丘利星际快运船、墨丘利</t>
   </si>
   <si>
     <t>Buccaneer</t>
@@ -721,7 +730,7 @@
     <t>p52_merlin</t>
   </si>
   <si>
-    <t>梅林、p52、P52梅林</t>
+    <t>P52梅林、p52、梅林</t>
   </si>
   <si>
     <t>krig</t>
@@ -736,7 +745,7 @@
     <t>p72_archimedes</t>
   </si>
   <si>
-    <t>阿基米德、P72、P72阿基米德</t>
+    <t>P72阿基米、德阿基米德、P72、</t>
   </si>
   <si>
     <t>Freelancer</t>
@@ -787,7 +796,7 @@
     <t>hull_a</t>
   </si>
   <si>
-    <t>货轮-A</t>
+    <t>货A、HullA、货-A、Hull-A</t>
   </si>
   <si>
     <t>Prospector</t>
@@ -832,7 +841,7 @@
     <t>reliant</t>
   </si>
   <si>
-    <t>信赖基础</t>
+    <t>信赖货运</t>
   </si>
   <si>
     <t>Reliant Mako</t>
@@ -841,7 +850,7 @@
     <t>reliant_mako</t>
   </si>
   <si>
-    <t>信赖新闻</t>
+    <t>信赖侦察</t>
   </si>
   <si>
     <t>Reliant Sen</t>
@@ -883,6 +892,9 @@
     <t>100i</t>
   </si>
   <si>
+    <t>100I、100i</t>
+  </si>
+  <si>
     <t>orig</t>
   </si>
   <si>
@@ -892,24 +904,45 @@
     <t>125a</t>
   </si>
   <si>
+    <t>125A、125a</t>
+  </si>
+  <si>
     <t>135c</t>
   </si>
   <si>
+    <t>135C、135c</t>
+  </si>
+  <si>
     <t>300i</t>
   </si>
   <si>
+    <t>300I、300i</t>
+  </si>
+  <si>
     <t>315p</t>
   </si>
   <si>
+    <t>315P、315p</t>
+  </si>
+  <si>
     <t>325a</t>
   </si>
   <si>
+    <t>325A、325a</t>
+  </si>
+  <si>
     <t>350r</t>
   </si>
   <si>
+    <t>350R、350r</t>
+  </si>
+  <si>
     <t>400i</t>
   </si>
   <si>
+    <t>400I、400i</t>
+  </si>
+  <si>
     <t>600i Explorer</t>
   </si>
   <si>
@@ -940,7 +973,7 @@
     <t>890jump</t>
   </si>
   <si>
-    <t>890跃动、890</t>
+    <t>890、890跃动</t>
   </si>
   <si>
     <t>M50</t>
@@ -1006,7 +1039,7 @@
     <t>constellation_andromeda</t>
   </si>
   <si>
-    <t>星座仙女座、仙女、仙女座</t>
+    <t>仙女座、仙女、星座仙女座</t>
   </si>
   <si>
     <t>Constellation Aquila</t>
@@ -1015,7 +1048,7 @@
     <t>constellation_Aquila</t>
   </si>
   <si>
-    <t>星座天鹰座、天鹰、天鹰座</t>
+    <t>天鹰座、天鹰、星座天鹰座</t>
   </si>
   <si>
     <t>Constellation Phoenix</t>
@@ -1024,7 +1057,7 @@
     <t>constellation_Phoenix</t>
   </si>
   <si>
-    <t>星座凤凰座、凤凰、凤凰座</t>
+    <t>凤凰座、凤凰、星座凤凰座</t>
   </si>
   <si>
     <t>Constellation Taurus</t>
@@ -1033,7 +1066,7 @@
     <t>constellation_Taurus</t>
   </si>
   <si>
-    <t>星座金牛座、金牛、金牛座</t>
+    <t>金牛座、金牛、星座金牛座</t>
   </si>
   <si>
     <t>Mantis</t>
@@ -1060,7 +1093,7 @@
     <t>scorpius_Antares</t>
   </si>
   <si>
-    <t>天蝎座蝎心、蝎心、星宿二、天蝎座星宿二、电蝎</t>
+    <t>天蝎座星宿Ⅱ、天蝎座蝎心、蝎心、星宿二、电蝎</t>
   </si>
   <si>
     <t>Ursa</t>
@@ -1197,10 +1230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1226,31 +1259,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,33 +1296,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,7 +1329,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,9 +1380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,30 +1396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,7 +1417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1453,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,25 +1543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,19 +1567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,103 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,33 +1608,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1610,8 +1626,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,8 +1649,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1656,6 +1674,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1674,152 +1707,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1861,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2153,8 +2192,8 @@
   <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2177,7 +2216,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2194,7 +2233,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2211,7 +2250,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2228,7 +2267,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2245,7 +2284,7 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2262,7 +2301,7 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2279,7 +2318,7 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2296,7 +2335,7 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2313,7 +2352,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2330,7 +2369,7 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2347,7 +2386,7 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2364,7 +2403,7 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2381,7 +2420,7 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2398,7 +2437,7 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2415,7 +2454,7 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2432,7 +2471,7 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2449,7 +2488,7 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2466,7 +2505,7 @@
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2483,7 +2522,7 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2500,7 +2539,7 @@
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2517,7 +2556,7 @@
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2534,7 +2573,7 @@
       <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2551,7 +2590,7 @@
       <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2568,7 +2607,7 @@
       <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2585,7 +2624,7 @@
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2602,7 +2641,7 @@
       <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2619,7 +2658,7 @@
       <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2636,7 +2675,7 @@
       <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2653,7 +2692,7 @@
       <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2670,7 +2709,7 @@
       <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2687,7 +2726,7 @@
       <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2704,7 +2743,7 @@
       <c r="D32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2721,7 +2760,7 @@
       <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2738,7 +2777,7 @@
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2755,7 +2794,7 @@
       <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2772,7 +2811,7 @@
       <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2789,7 +2828,7 @@
       <c r="D37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2806,7 +2845,7 @@
       <c r="D38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2823,7 +2862,7 @@
       <c r="D39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2840,7 +2879,7 @@
       <c r="D40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2857,7 +2896,7 @@
       <c r="D41" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2872,44 +2911,44 @@
         <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:5">
@@ -2923,10 +2962,10 @@
         <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:5">
@@ -2940,10 +2979,10 @@
         <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:5">
@@ -2957,10 +2996,10 @@
         <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="1:5">
@@ -2974,10 +3013,10 @@
         <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="1:5">
@@ -2991,10 +3030,10 @@
         <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:5">
@@ -3008,27 +3047,27 @@
         <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" t="s">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:5">
@@ -3042,10 +3081,10 @@
         <v>171</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="1:5">
@@ -3059,10 +3098,10 @@
         <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="1:5">
@@ -3076,10 +3115,10 @@
         <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="1:5">
@@ -3093,10 +3132,10 @@
         <v>180</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="1:5">
@@ -3110,27 +3149,27 @@
         <v>183</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E56" t="s">
-        <v>185</v>
+        <v>167</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:5">
@@ -3144,10 +3183,10 @@
         <v>191</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="1:5">
@@ -3161,10 +3200,10 @@
         <v>194</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:5">
@@ -3178,10 +3217,10 @@
         <v>197</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="1:5">
@@ -3195,10 +3234,10 @@
         <v>200</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="1:5">
@@ -3212,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="1:5">
@@ -3229,10 +3268,10 @@
         <v>206</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="1:5">
@@ -3246,10 +3285,10 @@
         <v>209</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="1:5">
@@ -3263,10 +3302,10 @@
         <v>212</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="1:5">
@@ -3280,10 +3319,10 @@
         <v>215</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="1:5">
@@ -3297,27 +3336,27 @@
         <v>218</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" t="s">
-        <v>220</v>
+        <v>187</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="69" ht="17.6" spans="1:5">
@@ -3331,15 +3370,15 @@
         <v>226</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E69" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="70" ht="17.6" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>228</v>
@@ -3348,15 +3387,15 @@
         <v>229</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" t="s">
-        <v>220</v>
+        <v>230</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="71" ht="17.6" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>231</v>
@@ -3365,10 +3404,10 @@
         <v>232</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" t="s">
-        <v>220</v>
+        <v>230</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="72" ht="17.6" spans="1:5">
@@ -3382,27 +3421,27 @@
         <v>235</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="73" ht="17.6" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="74" ht="17.6" spans="1:5">
@@ -3416,27 +3455,27 @@
         <v>243</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="75" ht="17.6" spans="1:5">
       <c r="A75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="1:5">
@@ -3450,10 +3489,10 @@
         <v>251</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="77" ht="17.6" spans="1:5">
@@ -3467,10 +3506,10 @@
         <v>254</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="78" ht="17.6" spans="1:5">
@@ -3484,10 +3523,10 @@
         <v>257</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="79" ht="17.6" spans="1:5">
@@ -3501,10 +3540,10 @@
         <v>260</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="80" ht="17.6" spans="1:5">
@@ -3518,10 +3557,10 @@
         <v>263</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" ht="17.6" spans="1:5">
@@ -3535,10 +3574,10 @@
         <v>266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="82" ht="17.6" spans="1:5">
@@ -3552,10 +3591,10 @@
         <v>269</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="83" ht="17.6" spans="1:5">
@@ -3569,10 +3608,10 @@
         <v>272</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="84" ht="17.6" spans="1:5">
@@ -3586,10 +3625,10 @@
         <v>275</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="17.6" spans="1:5">
@@ -3603,10 +3642,10 @@
         <v>278</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="86" ht="17.6" spans="1:5">
@@ -3620,10 +3659,10 @@
         <v>281</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="87" ht="17.6" spans="1:5">
@@ -3637,10 +3676,10 @@
         <v>284</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88" ht="17.6" spans="1:5">
@@ -3654,10 +3693,10 @@
         <v>287</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="89" ht="17.6" spans="1:5">
@@ -3665,16 +3704,16 @@
         <v>288</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E89" t="s">
-        <v>290</v>
+        <v>247</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="90" ht="17.6" spans="1:5">
@@ -3685,723 +3724,734 @@
         <v>291</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="91" ht="17.6" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="92" ht="17.6" spans="1:5">
       <c r="A92" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" t="s">
-        <v>290</v>
+      <c r="E92" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="93" ht="17.6" spans="1:5">
       <c r="A93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="94" ht="17.6" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E94" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95" ht="17.6" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="96" ht="17.6" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E96" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="97" ht="17.6" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E97" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="98" ht="17.6" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E98" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="99" ht="17.6" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E99" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="100" ht="17.6" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E100" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="101" ht="17.6" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E101" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="102" ht="17.6" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E102" t="s">
-        <v>315</v>
+        <v>293</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="103" ht="17.6" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E103" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="104" ht="17.6" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E104" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="105" ht="17.6" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E105" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="106" ht="17.6" spans="1:5">
       <c r="A106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E106" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" ht="34" spans="1:5">
+    </row>
+    <row r="107" ht="17.6" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E107" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="108" ht="34" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E108" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="109" ht="34" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E109" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="110" ht="34" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E110" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" ht="17.6" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" ht="34" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E111" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="112" ht="17.6" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" ht="51" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" ht="17.6" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" ht="17.6" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" ht="51" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E114" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="115" ht="17.6" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E115" t="s">
-        <v>355</v>
+        <v>325</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="116" ht="17.6" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E116" t="s">
-        <v>360</v>
+        <v>222</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="117" ht="17.6" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E117" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="118" ht="17.6" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E118" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="119" ht="17.6" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E119" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="120" ht="17.6" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E120" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="121" ht="17.6" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E121" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="122" ht="17.6" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E122" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="123" ht="17.6" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E123" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="124" ht="17.6" spans="1:5">
       <c r="A124" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="125" ht="17.6" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E125" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="126" ht="17.6" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E126" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="127" ht="17.6" spans="1:4">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" ht="17.6" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="128" ht="17.6" spans="1:4">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17120"/>
+    <workbookView windowWidth="25380" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="414">
   <si>
     <t>英文名</t>
   </si>
@@ -187,16 +187,22 @@
     <t>vanguard_sentinel</t>
   </si>
   <si>
-    <t>先锋哨兵</t>
+    <t>先锋哨兵、哨兵</t>
   </si>
   <si>
     <t>Vanguard Warden</t>
   </si>
   <si>
-    <t>vanguard_warden</t>
-  </si>
-  <si>
-    <t>先锋典狱长</t>
+    <t>aegs_vanguard</t>
+  </si>
+  <si>
+    <t>先锋典狱长、典狱长</t>
+  </si>
+  <si>
+    <t>Mule</t>
+  </si>
+  <si>
+    <t>骡子</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -487,7 +493,7 @@
     <t>mustang_gamma</t>
   </si>
   <si>
-    <t>野马伽马</t>
+    <t>野马伽玛、野马伽马</t>
   </si>
   <si>
     <t>Mustang Omega</t>
@@ -496,7 +502,7 @@
     <t>mustang_omega</t>
   </si>
   <si>
-    <t>野马欧米伽</t>
+    <t>野马欧米茄</t>
   </si>
   <si>
     <t>Nomad</t>
@@ -808,6 +814,78 @@
     <t>勘探者、小矿</t>
   </si>
   <si>
+    <t>Reliant Kore</t>
+  </si>
+  <si>
+    <t>reliant</t>
+  </si>
+  <si>
+    <t>信赖货运</t>
+  </si>
+  <si>
+    <t>Reliant Mako</t>
+  </si>
+  <si>
+    <t>reliant_mako</t>
+  </si>
+  <si>
+    <t>信赖侦察</t>
+  </si>
+  <si>
+    <t>Reliant Sen</t>
+  </si>
+  <si>
+    <t>reliant_sen</t>
+  </si>
+  <si>
+    <t>信赖科考</t>
+  </si>
+  <si>
+    <t>Reliant Tana</t>
+  </si>
+  <si>
+    <t>reliant_tana</t>
+  </si>
+  <si>
+    <t>信赖武装</t>
+  </si>
+  <si>
+    <t>Starfarer</t>
+  </si>
+  <si>
+    <t>starfarer</t>
+  </si>
+  <si>
+    <t>星际远航者、民油、油船</t>
+  </si>
+  <si>
+    <t>Starfarer Gemini</t>
+  </si>
+  <si>
+    <t>starfarer_Gemini</t>
+  </si>
+  <si>
+    <t>星际远航者双子座、双子座、军油</t>
+  </si>
+  <si>
+    <t>Fury MX</t>
+  </si>
+  <si>
+    <t>fury_miru</t>
+  </si>
+  <si>
+    <t>狂怒MX、愤怒MX</t>
+  </si>
+  <si>
+    <t>Mirai</t>
+  </si>
+  <si>
+    <t>Fury</t>
+  </si>
+  <si>
+    <t>狂怒、愤怒</t>
+  </si>
+  <si>
     <t>Razor</t>
   </si>
   <si>
@@ -823,7 +901,7 @@
     <t>razor_ex</t>
   </si>
   <si>
-    <t>剃刀-EX</t>
+    <t>剃刀-EX、剃刀EX</t>
   </si>
   <si>
     <t>Razor LX</t>
@@ -832,67 +910,13 @@
     <t>razor_lx</t>
   </si>
   <si>
-    <t>剃刀-LX</t>
-  </si>
-  <si>
-    <t>Reliant Kore</t>
-  </si>
-  <si>
-    <t>reliant</t>
-  </si>
-  <si>
-    <t>信赖货运</t>
-  </si>
-  <si>
-    <t>Reliant Mako</t>
-  </si>
-  <si>
-    <t>reliant_mako</t>
-  </si>
-  <si>
-    <t>信赖侦察</t>
-  </si>
-  <si>
-    <t>Reliant Sen</t>
-  </si>
-  <si>
-    <t>reliant_sen</t>
-  </si>
-  <si>
-    <t>信赖科考</t>
-  </si>
-  <si>
-    <t>Reliant Tana</t>
-  </si>
-  <si>
-    <t>reliant_tana</t>
-  </si>
-  <si>
-    <t>信赖武装</t>
-  </si>
-  <si>
-    <t>Starfarer</t>
-  </si>
-  <si>
-    <t>starfarer</t>
-  </si>
-  <si>
-    <t>星际远航者、民油、油船</t>
-  </si>
-  <si>
-    <t>Starfarer Gemini</t>
-  </si>
-  <si>
-    <t>starfarer_Gemini</t>
-  </si>
-  <si>
-    <t>星际远航者双子座、双子座、军油</t>
+    <t>剃刀-LX、剃刀LX</t>
   </si>
   <si>
     <t>100i</t>
   </si>
   <si>
-    <t>100I、100i</t>
+    <t>100i、100I</t>
   </si>
   <si>
     <t>orig</t>
@@ -949,7 +973,7 @@
     <t>600i</t>
   </si>
   <si>
-    <t>600i探索</t>
+    <t>600i探索、600I探索</t>
   </si>
   <si>
     <t>600i Touring</t>
@@ -958,7 +982,7 @@
     <t>600i_touring</t>
   </si>
   <si>
-    <t>600i旅游</t>
+    <t>600i旅游、600I旅游</t>
   </si>
   <si>
     <t>85X</t>
@@ -982,6 +1006,15 @@
     <t>m50</t>
   </si>
   <si>
+    <t>M50、m50</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>天猫座、猞猁</t>
+  </si>
+  <si>
     <t>Aurora CL</t>
   </si>
   <si>
@@ -1093,7 +1126,7 @@
     <t>scorpius_Antares</t>
   </si>
   <si>
-    <t>天蝎座星宿Ⅱ、天蝎座蝎心、蝎心、星宿二、电蝎</t>
+    <t>天蝎座星宿Ⅱ、星宿二、天蝎星宿、天蝎座星宿</t>
   </si>
   <si>
     <t>Ursa</t>
@@ -1230,10 +1263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1259,6 +1292,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1270,6 +1310,84 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1288,22 +1406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1312,47 +1414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,37 +1429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,7 +1444,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1516,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,19 +1588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,115 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,6 +1649,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1623,11 +1682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,17 +1712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1673,32 +1727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,152 +1740,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,12 +1894,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2192,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E127"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2531,883 +2558,883 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" ht="17" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:5">
       <c r="A28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:5">
       <c r="A29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:5">
       <c r="A31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:5">
       <c r="A33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:5">
       <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:5">
       <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:5">
       <c r="A36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" ht="17.6" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>117</v>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="39" ht="17.6" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:5">
       <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:5">
       <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:5">
       <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:5">
       <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:5">
       <c r="A60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="1:5">
       <c r="A63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="1:5">
       <c r="A65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="1:5">
       <c r="A66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="1:5">
       <c r="A67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" ht="17.6" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="70" ht="17.6" spans="1:5">
       <c r="A70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" ht="17.6" spans="1:5">
       <c r="A71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" ht="17.6" spans="1:5">
@@ -3415,288 +3442,288 @@
         <v>233</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" ht="17.6" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" ht="17.6" spans="1:5">
       <c r="A74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="75" ht="17.6" spans="1:5">
       <c r="A75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="1:5">
       <c r="A76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="77" ht="17.6" spans="1:5">
       <c r="A77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" ht="17.6" spans="1:5">
       <c r="A78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" ht="17.6" spans="1:5">
       <c r="A79" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" ht="17.6" spans="1:5">
       <c r="A80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" ht="17.6" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" ht="17.6" spans="1:5">
       <c r="A82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" ht="17.6" spans="1:5">
       <c r="A83" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" ht="17.6" spans="1:5">
       <c r="A84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" ht="17.6" spans="1:5">
       <c r="A85" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" ht="17.6" spans="1:5">
       <c r="A86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" ht="17.6" spans="1:5">
       <c r="A87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="17.6" spans="1:5">
       <c r="A88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="89" ht="17.6" spans="1:5">
@@ -3704,21 +3731,21 @@
         <v>288</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" ht="17.6" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>291</v>
@@ -3727,32 +3754,32 @@
         <v>292</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" ht="17.6" spans="1:5">
       <c r="A91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="D91" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" ht="17.6" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>297</v>
@@ -3761,10 +3788,10 @@
         <v>298</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" ht="17.6" spans="1:5">
@@ -3778,100 +3805,100 @@
         <v>300</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" ht="17.6" spans="1:5">
       <c r="A94" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="95" ht="17.6" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" ht="17.6" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" ht="17.6" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" ht="17.6" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" ht="17.6" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>313</v>
@@ -3880,10 +3907,10 @@
         <v>314</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" ht="17.6" spans="1:5">
@@ -3891,16 +3918,16 @@
         <v>315</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" ht="17.6" spans="1:5">
@@ -3914,10 +3941,10 @@
         <v>319</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" ht="17.6" spans="1:5">
@@ -3928,530 +3955,577 @@
         <v>321</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" ht="17.6" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" ht="17.6" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" ht="17.6" spans="1:5">
       <c r="A105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" ht="17.6" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" ht="17.6" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C107" s="2" t="s">
+    </row>
+    <row r="108" ht="17.6" spans="1:5">
+      <c r="A108" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" ht="34" spans="1:5">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" ht="17.6" spans="1:5">
+      <c r="A109" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" ht="34" spans="1:5">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110" ht="17.6" spans="1:5">
+      <c r="A110" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" ht="34" spans="1:5">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" ht="17.6" spans="1:5">
+      <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="111" ht="34" spans="1:5">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" ht="34" spans="1:5">
+      <c r="A112" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" ht="17.6" spans="1:5">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" ht="34" spans="1:5">
+      <c r="A113" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" ht="17.6" spans="1:5">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" ht="34" spans="1:5">
+      <c r="A114" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" ht="51" spans="1:5">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" ht="34" spans="1:5">
+      <c r="A115" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" ht="17.6" spans="1:5">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="D115" s="3" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" ht="17.6" spans="1:5">
       <c r="A116" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="D116" s="3" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" ht="17.6" spans="1:5">
       <c r="A117" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" ht="51" spans="1:5">
+      <c r="A118" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="118" ht="17.6" spans="1:5">
-      <c r="A118" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" ht="17.6" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" ht="17.6" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" ht="17.6" spans="1:5">
       <c r="A121" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="122" ht="17.6" spans="1:5">
       <c r="A122" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" ht="17.6" spans="1:5">
       <c r="A123" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" ht="17.6" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" ht="17.6" spans="1:5">
       <c r="A125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="126" ht="17.6" spans="1:5">
       <c r="A126" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" ht="17.6" spans="1:5">
       <c r="A127" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="128" ht="17.6" spans="1:5">
+      <c r="A128" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" ht="17.6" spans="1:4">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="B128" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="129" ht="17.6" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" ht="17.6" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" ht="17.6" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -1015,6 +1015,12 @@
     <t>天猫座、猞猁</t>
   </si>
   <si>
+    <t>rsi</t>
+  </si>
+  <si>
+    <t>Roberts Space Industries</t>
+  </si>
+  <si>
     <t>Aurora CL</t>
   </si>
   <si>
@@ -1022,12 +1028,6 @@
   </si>
   <si>
     <t>极光CL</t>
-  </si>
-  <si>
-    <t>rsi</t>
-  </si>
-  <si>
-    <t>Roberts Space Industries</t>
   </si>
   <si>
     <t>Aurora ES</t>
@@ -1263,10 +1263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1292,7 +1292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,6 +1300,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,18 +1320,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1344,6 +1344,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1353,15 +1368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,37 +1392,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,6 +1427,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1444,7 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1468,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,25 +1510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,19 +1540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,19 +1570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,37 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,25 +1618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,6 +1641,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1649,10 +1658,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1669,15 +1676,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,6 +1710,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1726,162 +1735,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2219,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -4026,27 +4026,27 @@
         <v>332</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" ht="17.6" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="108" ht="17.6" spans="1:5">
@@ -4060,10 +4060,10 @@
         <v>340</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" ht="17.6" spans="1:5">
@@ -4077,10 +4077,10 @@
         <v>343</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" ht="17.6" spans="1:5">
@@ -4094,10 +4094,10 @@
         <v>346</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" ht="17.6" spans="1:5">
@@ -4111,10 +4111,10 @@
         <v>349</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" ht="34" spans="1:5">
@@ -4128,10 +4128,10 @@
         <v>352</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" ht="34" spans="1:5">
@@ -4145,10 +4145,10 @@
         <v>355</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" ht="34" spans="1:5">
@@ -4162,10 +4162,10 @@
         <v>358</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" ht="34" spans="1:5">
@@ -4179,10 +4179,10 @@
         <v>361</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" ht="17.6" spans="1:5">
@@ -4196,10 +4196,10 @@
         <v>364</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" ht="17.6" spans="1:5">
@@ -4213,10 +4213,10 @@
         <v>367</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" ht="51" spans="1:5">
@@ -4230,10 +4230,10 @@
         <v>370</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" ht="17.6" spans="1:5">
@@ -4247,10 +4247,10 @@
         <v>373</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" ht="17.6" spans="1:5">

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="13520"/>
+    <workbookView windowWidth="28800" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,475 +199,475 @@
     <t>先锋典狱长、典狱长</t>
   </si>
   <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>箭矢、箭头</t>
+  </si>
+  <si>
+    <t>anvl</t>
+  </si>
+  <si>
+    <t>Anvil Aerospace</t>
+  </si>
+  <si>
+    <t>C8 Pisces</t>
+  </si>
+  <si>
+    <t>c8_pisces</t>
+  </si>
+  <si>
+    <t>C8双鱼座、C8</t>
+  </si>
+  <si>
+    <t>C8R Pisces Rescue</t>
+  </si>
+  <si>
+    <t>c8r_pisces</t>
+  </si>
+  <si>
+    <t>C8R双鱼座救援、C8R</t>
+  </si>
+  <si>
+    <t>C8X Pisces Expedition</t>
+  </si>
+  <si>
+    <t>c8x_pisces_expedition</t>
+  </si>
+  <si>
+    <t>C8X双鱼座远征、C8X</t>
+  </si>
+  <si>
+    <t>Carrack</t>
+  </si>
+  <si>
+    <t>carrack</t>
+  </si>
+  <si>
+    <t>克拉克</t>
+  </si>
+  <si>
+    <t>F7C Hornet</t>
+  </si>
+  <si>
+    <t>hornet_f7c</t>
+  </si>
+  <si>
+    <t>F7C大黄蜂、F7C</t>
+  </si>
+  <si>
+    <t>F7C-M Super Hornet</t>
+  </si>
+  <si>
+    <t>hornet_f7cm</t>
+  </si>
+  <si>
+    <t>F7C-M超级大黄蜂、F7C-M、F7CM</t>
+  </si>
+  <si>
+    <t>F7C-R Hornet Tracker</t>
+  </si>
+  <si>
+    <t>hornet_f7cr</t>
+  </si>
+  <si>
+    <t>F7C-R大黄蜂追踪者、F7C-R、F7CR</t>
+  </si>
+  <si>
+    <t>F7C-S Hornet Ghost</t>
+  </si>
+  <si>
+    <t>hornet_f7cs</t>
+  </si>
+  <si>
+    <t>F7C-S大黄蜂幽灵、F7C-S、F7CS</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>gladiator</t>
+  </si>
+  <si>
+    <t>角斗士</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>猎鹰、鹰、小鹰</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>hurricane</t>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>Terrapin</t>
+  </si>
+  <si>
+    <t>terrapin</t>
+  </si>
+  <si>
+    <t>水龟</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>valkyrie</t>
+  </si>
+  <si>
+    <t>女武神、瓦尔基里</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>ballista</t>
+  </si>
+  <si>
+    <t>弩炮</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>centurion</t>
+  </si>
+  <si>
+    <t>百夫长</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>spartan</t>
+  </si>
+  <si>
+    <t>斯巴达</t>
+  </si>
+  <si>
+    <t>Khartu-al</t>
+  </si>
+  <si>
+    <t>scout</t>
+  </si>
+  <si>
+    <t>卡图</t>
+  </si>
+  <si>
+    <t>xian</t>
+  </si>
+  <si>
+    <t>Aopoa</t>
+  </si>
+  <si>
+    <t>Nox</t>
+  </si>
+  <si>
+    <t>nox</t>
+  </si>
+  <si>
+    <t>Nox、诺克斯</t>
+  </si>
+  <si>
+    <t>MOLE</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>鼹鼠</t>
+  </si>
+  <si>
+    <t>argo</t>
+  </si>
+  <si>
+    <t>Argo Astronautics</t>
+  </si>
+  <si>
+    <t>MPUV Cargo</t>
+  </si>
+  <si>
+    <t>mpuv</t>
+  </si>
+  <si>
+    <t>MPUV货运、MPUV运输</t>
+  </si>
+  <si>
+    <t>MPUV Personnel</t>
+  </si>
+  <si>
+    <t>mpuv_transport</t>
+  </si>
+  <si>
+    <t>MPUV载人</t>
+  </si>
+  <si>
+    <t>RAFT</t>
+  </si>
+  <si>
+    <t>raft</t>
+  </si>
+  <si>
+    <t>木筏</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t>巴努防御者、防卫者、巴卫、巴努卫士</t>
+  </si>
+  <si>
+    <t>banu</t>
+  </si>
+  <si>
+    <t>Banu Suli</t>
+  </si>
+  <si>
+    <t>HoverQuad</t>
+  </si>
+  <si>
+    <t>hoverquad</t>
+  </si>
+  <si>
+    <t>悬浮摩托、悬浮驷、悬浮四边形、悬停四边形</t>
+  </si>
+  <si>
+    <t>cnou</t>
+  </si>
+  <si>
+    <t>Consolidated Outland</t>
+  </si>
+  <si>
+    <t>Mustang Alpha</t>
+  </si>
+  <si>
+    <t>mustang_alpha</t>
+  </si>
+  <si>
+    <t>野马阿尔法</t>
+  </si>
+  <si>
+    <t>Mustang Beta</t>
+  </si>
+  <si>
+    <t>mustang_beta</t>
+  </si>
+  <si>
+    <t>野马贝塔</t>
+  </si>
+  <si>
+    <t>Mustang Delta</t>
+  </si>
+  <si>
+    <t>mustang_delta</t>
+  </si>
+  <si>
+    <t>野马德尔塔</t>
+  </si>
+  <si>
+    <t>Mustang Gamma</t>
+  </si>
+  <si>
+    <t>mustang_gamma</t>
+  </si>
+  <si>
+    <t>野马伽玛、野马伽马</t>
+  </si>
+  <si>
+    <t>Mustang Omega</t>
+  </si>
+  <si>
+    <t>mustang_omega</t>
+  </si>
+  <si>
+    <t>野马欧米茄</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>nomad</t>
+  </si>
+  <si>
+    <t>游牧</t>
+  </si>
+  <si>
+    <t>A2 Hercules Starlifter</t>
+  </si>
+  <si>
+    <t>starlifter_a2</t>
+  </si>
+  <si>
+    <t>大力神A2、A2</t>
+  </si>
+  <si>
+    <t>crus</t>
+  </si>
+  <si>
+    <t>Crusader Industries</t>
+  </si>
+  <si>
+    <t>Ares Star Fighter Inferno</t>
+  </si>
+  <si>
+    <t>starfighter_inferno</t>
+  </si>
+  <si>
+    <t>战神地狱火、黑战神</t>
+  </si>
+  <si>
+    <t>Ares Star Fighter Ion</t>
+  </si>
+  <si>
+    <t>starfighter_ion</t>
+  </si>
+  <si>
+    <t>战神离子光、白战神</t>
+  </si>
+  <si>
+    <t>C2 Hercules Starlifter</t>
+  </si>
+  <si>
+    <t>starlifter_c2</t>
+  </si>
+  <si>
+    <t>大力神C2、C2</t>
+  </si>
+  <si>
+    <t>M2 Hercules Starlifter</t>
+  </si>
+  <si>
+    <t>starlifter_m2</t>
+  </si>
+  <si>
+    <t>大力神M2、M2</t>
+  </si>
+  <si>
+    <t>Mercury Star Runner</t>
+  </si>
+  <si>
+    <t>star_runner</t>
+  </si>
+  <si>
+    <t>水星、墨丘利星际快运船、墨丘利</t>
+  </si>
+  <si>
+    <t>Buccaneer</t>
+  </si>
+  <si>
+    <t>buccaneer</t>
+  </si>
+  <si>
+    <t>掠夺者</t>
+  </si>
+  <si>
+    <t>drak</t>
+  </si>
+  <si>
+    <t>Drake Interplanetary</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
+    <t>毛虫、毛毛虫</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t>corsair</t>
+  </si>
+  <si>
+    <t>海盗船</t>
+  </si>
+  <si>
+    <t>Cutlass Black</t>
+  </si>
+  <si>
+    <t>cutlass_black</t>
+  </si>
+  <si>
+    <t>黑弯刀</t>
+  </si>
+  <si>
+    <t>Cutlass Blue</t>
+  </si>
+  <si>
+    <t>cutlass_blue</t>
+  </si>
+  <si>
+    <t>蓝弯刀</t>
+  </si>
+  <si>
+    <t>Cutlass Red</t>
+  </si>
+  <si>
+    <t>cutlass_red</t>
+  </si>
+  <si>
+    <t>红弯刀</t>
+  </si>
+  <si>
+    <t>Cutlass Steel</t>
+  </si>
+  <si>
+    <t>cutlass_steel</t>
+  </si>
+  <si>
+    <t>钢弯刀</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>cutter</t>
+  </si>
+  <si>
+    <t>小刀、卡特</t>
+  </si>
+  <si>
+    <t>Dragonfly</t>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>蜻蜓</t>
+  </si>
+  <si>
+    <t>Herald</t>
+  </si>
+  <si>
+    <t>herald</t>
+  </si>
+  <si>
+    <t>信使</t>
+  </si>
+  <si>
     <t>Mule</t>
   </si>
   <si>
     <t>骡子</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>箭矢、箭头</t>
-  </si>
-  <si>
-    <t>anvl</t>
-  </si>
-  <si>
-    <t>Anvil Aerospace</t>
-  </si>
-  <si>
-    <t>C8 Pisces</t>
-  </si>
-  <si>
-    <t>c8_pisces</t>
-  </si>
-  <si>
-    <t>C8双鱼座、C8</t>
-  </si>
-  <si>
-    <t>C8R Pisces Rescue</t>
-  </si>
-  <si>
-    <t>c8r_pisces</t>
-  </si>
-  <si>
-    <t>C8R双鱼座救援、C8R</t>
-  </si>
-  <si>
-    <t>C8X Pisces Expedition</t>
-  </si>
-  <si>
-    <t>c8x_pisces_expedition</t>
-  </si>
-  <si>
-    <t>C8X双鱼座远征、C8X</t>
-  </si>
-  <si>
-    <t>Carrack</t>
-  </si>
-  <si>
-    <t>carrack</t>
-  </si>
-  <si>
-    <t>克拉克</t>
-  </si>
-  <si>
-    <t>F7C Hornet</t>
-  </si>
-  <si>
-    <t>hornet_f7c</t>
-  </si>
-  <si>
-    <t>F7C大黄蜂、F7C</t>
-  </si>
-  <si>
-    <t>F7C-M Super Hornet</t>
-  </si>
-  <si>
-    <t>hornet_f7cm</t>
-  </si>
-  <si>
-    <t>F7C-M超级大黄蜂、F7C-M、F7CM</t>
-  </si>
-  <si>
-    <t>F7C-R Hornet Tracker</t>
-  </si>
-  <si>
-    <t>hornet_f7cr</t>
-  </si>
-  <si>
-    <t>F7C-R大黄蜂追踪者、F7C-R、F7CR</t>
-  </si>
-  <si>
-    <t>F7C-S Hornet Ghost</t>
-  </si>
-  <si>
-    <t>hornet_f7cs</t>
-  </si>
-  <si>
-    <t>F7C-S大黄蜂幽灵、F7C-S、F7CS</t>
-  </si>
-  <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>gladiator</t>
-  </si>
-  <si>
-    <t>角斗士</t>
-  </si>
-  <si>
-    <t>Hawk</t>
-  </si>
-  <si>
-    <t>hawk</t>
-  </si>
-  <si>
-    <t>猎鹰、鹰、小鹰</t>
-  </si>
-  <si>
-    <t>Hurricane</t>
-  </si>
-  <si>
-    <t>hurricane</t>
-  </si>
-  <si>
-    <t>飓风</t>
-  </si>
-  <si>
-    <t>Terrapin</t>
-  </si>
-  <si>
-    <t>terrapin</t>
-  </si>
-  <si>
-    <t>水龟</t>
-  </si>
-  <si>
-    <t>Valkyrie</t>
-  </si>
-  <si>
-    <t>valkyrie</t>
-  </si>
-  <si>
-    <t>女武神、瓦尔基里</t>
-  </si>
-  <si>
-    <t>Ballista</t>
-  </si>
-  <si>
-    <t>ballista</t>
-  </si>
-  <si>
-    <t>弩炮</t>
-  </si>
-  <si>
-    <t>Centurion</t>
-  </si>
-  <si>
-    <t>centurion</t>
-  </si>
-  <si>
-    <t>百夫长</t>
-  </si>
-  <si>
-    <t>Spartan</t>
-  </si>
-  <si>
-    <t>spartan</t>
-  </si>
-  <si>
-    <t>斯巴达</t>
-  </si>
-  <si>
-    <t>Khartu-al</t>
-  </si>
-  <si>
-    <t>scout</t>
-  </si>
-  <si>
-    <t>卡图</t>
-  </si>
-  <si>
-    <t>xian</t>
-  </si>
-  <si>
-    <t>Aopoa</t>
-  </si>
-  <si>
-    <t>Nox</t>
-  </si>
-  <si>
-    <t>nox</t>
-  </si>
-  <si>
-    <t>Nox、诺克斯</t>
-  </si>
-  <si>
-    <t>MOLE</t>
-  </si>
-  <si>
-    <t>mole</t>
-  </si>
-  <si>
-    <t>鼹鼠</t>
-  </si>
-  <si>
-    <t>argo</t>
-  </si>
-  <si>
-    <t>Argo Astronautics</t>
-  </si>
-  <si>
-    <t>MPUV Cargo</t>
-  </si>
-  <si>
-    <t>mpuv</t>
-  </si>
-  <si>
-    <t>MPUV货运、MPUV运输</t>
-  </si>
-  <si>
-    <t>MPUV Personnel</t>
-  </si>
-  <si>
-    <t>mpuv_transport</t>
-  </si>
-  <si>
-    <t>MPUV载人</t>
-  </si>
-  <si>
-    <t>RAFT</t>
-  </si>
-  <si>
-    <t>raft</t>
-  </si>
-  <si>
-    <t>木筏</t>
-  </si>
-  <si>
-    <t>Defender</t>
-  </si>
-  <si>
-    <t>defender</t>
-  </si>
-  <si>
-    <t>巴努防御者、防卫者、巴卫、巴努卫士</t>
-  </si>
-  <si>
-    <t>banu</t>
-  </si>
-  <si>
-    <t>Banu Suli</t>
-  </si>
-  <si>
-    <t>HoverQuad</t>
-  </si>
-  <si>
-    <t>hoverquad</t>
-  </si>
-  <si>
-    <t>悬浮摩托、悬浮驷、悬浮四边形、悬停四边形</t>
-  </si>
-  <si>
-    <t>cnou</t>
-  </si>
-  <si>
-    <t>Consolidated Outland</t>
-  </si>
-  <si>
-    <t>Mustang Alpha</t>
-  </si>
-  <si>
-    <t>mustang_alpha</t>
-  </si>
-  <si>
-    <t>野马阿尔法</t>
-  </si>
-  <si>
-    <t>Mustang Beta</t>
-  </si>
-  <si>
-    <t>mustang_beta</t>
-  </si>
-  <si>
-    <t>野马贝塔</t>
-  </si>
-  <si>
-    <t>Mustang Delta</t>
-  </si>
-  <si>
-    <t>mustang_delta</t>
-  </si>
-  <si>
-    <t>野马德尔塔</t>
-  </si>
-  <si>
-    <t>Mustang Gamma</t>
-  </si>
-  <si>
-    <t>mustang_gamma</t>
-  </si>
-  <si>
-    <t>野马伽玛、野马伽马</t>
-  </si>
-  <si>
-    <t>Mustang Omega</t>
-  </si>
-  <si>
-    <t>mustang_omega</t>
-  </si>
-  <si>
-    <t>野马欧米茄</t>
-  </si>
-  <si>
-    <t>Nomad</t>
-  </si>
-  <si>
-    <t>nomad</t>
-  </si>
-  <si>
-    <t>游牧</t>
-  </si>
-  <si>
-    <t>A2 Hercules Starlifter</t>
-  </si>
-  <si>
-    <t>starlifter_a2</t>
-  </si>
-  <si>
-    <t>大力神A2、A2</t>
-  </si>
-  <si>
-    <t>crus</t>
-  </si>
-  <si>
-    <t>Crusader Industries</t>
-  </si>
-  <si>
-    <t>Ares Star Fighter Inferno</t>
-  </si>
-  <si>
-    <t>starfighter_inferno</t>
-  </si>
-  <si>
-    <t>战神地狱火、黑战神</t>
-  </si>
-  <si>
-    <t>Ares Star Fighter Ion</t>
-  </si>
-  <si>
-    <t>starfighter_ion</t>
-  </si>
-  <si>
-    <t>战神离子光、白战神</t>
-  </si>
-  <si>
-    <t>C2 Hercules Starlifter</t>
-  </si>
-  <si>
-    <t>starlifter_c2</t>
-  </si>
-  <si>
-    <t>大力神C2、C2</t>
-  </si>
-  <si>
-    <t>M2 Hercules Starlifter</t>
-  </si>
-  <si>
-    <t>starlifter_m2</t>
-  </si>
-  <si>
-    <t>大力神M2、M2</t>
-  </si>
-  <si>
-    <t>Mercury Star Runner</t>
-  </si>
-  <si>
-    <t>star_runner</t>
-  </si>
-  <si>
-    <t>水星、墨丘利星际快运船、墨丘利</t>
-  </si>
-  <si>
-    <t>Buccaneer</t>
-  </si>
-  <si>
-    <t>buccaneer</t>
-  </si>
-  <si>
-    <t>掠夺者</t>
-  </si>
-  <si>
-    <t>drak</t>
-  </si>
-  <si>
-    <t>Drake Interplanetary</t>
-  </si>
-  <si>
-    <t>Caterpillar</t>
-  </si>
-  <si>
-    <t>caterpillar</t>
-  </si>
-  <si>
-    <t>毛虫、毛毛虫</t>
-  </si>
-  <si>
-    <t>Corsair</t>
-  </si>
-  <si>
-    <t>corsair</t>
-  </si>
-  <si>
-    <t>海盗船</t>
-  </si>
-  <si>
-    <t>Cutlass Black</t>
-  </si>
-  <si>
-    <t>cutlass_black</t>
-  </si>
-  <si>
-    <t>黑弯刀</t>
-  </si>
-  <si>
-    <t>Cutlass Blue</t>
-  </si>
-  <si>
-    <t>cutlass_blue</t>
-  </si>
-  <si>
-    <t>蓝弯刀</t>
-  </si>
-  <si>
-    <t>Cutlass Red</t>
-  </si>
-  <si>
-    <t>cutlass_red</t>
-  </si>
-  <si>
-    <t>红弯刀</t>
-  </si>
-  <si>
-    <t>Cutlass Steel</t>
-  </si>
-  <si>
-    <t>cutlass_steel</t>
-  </si>
-  <si>
-    <t>钢弯刀</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>cutter</t>
-  </si>
-  <si>
-    <t>小刀、卡特</t>
-  </si>
-  <si>
-    <t>Dragonfly</t>
-  </si>
-  <si>
-    <t>dragonfly</t>
-  </si>
-  <si>
-    <t>蜻蜓</t>
-  </si>
-  <si>
-    <t>Herald</t>
-  </si>
-  <si>
-    <t>herald</t>
-  </si>
-  <si>
-    <t>信使</t>
   </si>
   <si>
     <t>Vulture</t>
@@ -1263,9 +1263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1305,13 +1305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1320,11 +1313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1336,14 +1328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1351,9 +1335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,10 +1351,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,9 +1375,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,31 +1412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,19 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,19 +1456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,19 +1480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,7 +1516,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,13 +1564,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,73 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,21 +1661,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,6 +1707,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1740,145 +1740,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2219,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2558,803 +2558,803 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="39" ht="17.6" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>121</v>
+      <c r="A39" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>216</v>
@@ -3363,10 +3363,10 @@
         <v>217</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="1:5">
@@ -3380,10 +3380,10 @@
         <v>220</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" ht="17.6" spans="1:5">

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -193,7 +193,7 @@
     <t>Vanguard Warden</t>
   </si>
   <si>
-    <t>aegs_vanguard</t>
+    <t>vanguard</t>
   </si>
   <si>
     <t>先锋典狱长、典狱长</t>
@@ -1264,9 +1264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1305,11 +1305,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1320,11 +1319,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1335,9 +1334,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,16 +1375,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,9 +1405,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,39 +1427,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,7 +1444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,37 +1474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,25 +1528,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,61 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,7 +1612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,6 +1643,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,6 +1681,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1676,6 +1706,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1694,191 +1735,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+      <selection activeCell="P13" sqref="P13:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="424">
   <si>
     <r>
       <rPr>
@@ -3564,6 +3564,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>fury</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>狂怒、愤怒</t>
     </r>
   </si>
@@ -3577,6 +3589,18 @@
         <scheme val="minor"/>
       </rPr>
       <t>Fury LX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fury_lx</t>
     </r>
   </si>
   <si>
@@ -5714,7 +5738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5727,14 +5751,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6061,7 +6088,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A1" sqref="A1:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -6087,7 +6114,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="17" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -6105,7 +6132,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="17" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -6123,7 +6150,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="17" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -6141,7 +6168,7 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="17" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -6159,7 +6186,7 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="17" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -6177,7 +6204,7 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" ht="17" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -6195,7 +6222,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" ht="17" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -6213,7 +6240,7 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" ht="17" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -6231,7 +6258,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" ht="17" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -6249,7 +6276,7 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" ht="17" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -6267,7 +6294,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" ht="17" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -6285,7 +6312,7 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" ht="17" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -6303,7 +6330,7 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" ht="17" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -6321,7 +6348,7 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" ht="17" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -6339,7 +6366,7 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" ht="17" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -6357,7 +6384,7 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -6375,7 +6402,7 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" ht="17" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -6393,7 +6420,7 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" ht="17" spans="1:6">
       <c r="A19" s="1" t="s">
@@ -6411,7 +6438,7 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" ht="17" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -6429,7 +6456,7 @@
       <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" ht="17" spans="1:6">
       <c r="A21" s="1" t="s">
@@ -6447,7 +6474,7 @@
       <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" ht="17" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -6465,7 +6492,7 @@
       <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" ht="17" spans="1:6">
       <c r="A23" s="1" t="s">
@@ -6483,7 +6510,7 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" ht="17" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -6501,7 +6528,7 @@
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" ht="17" spans="1:6">
       <c r="A25" s="1" t="s">
@@ -6519,7 +6546,7 @@
       <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" ht="17" spans="1:6">
       <c r="A26" s="1" t="s">
@@ -6537,7 +6564,7 @@
       <c r="E26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" ht="17" spans="1:6">
       <c r="A27" s="2" t="s">
@@ -6555,7 +6582,7 @@
       <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" ht="17" spans="1:6">
       <c r="A28" s="2" t="s">
@@ -6573,7 +6600,7 @@
       <c r="E28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" ht="17" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -6591,7 +6618,7 @@
       <c r="E29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" ht="17" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -6609,7 +6636,7 @@
       <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" ht="17" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -6627,7 +6654,7 @@
       <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" ht="17" spans="1:6">
       <c r="A32" s="2" t="s">
@@ -6645,7 +6672,7 @@
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" ht="17" spans="1:6">
       <c r="A33" s="2" t="s">
@@ -6663,7 +6690,7 @@
       <c r="E33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" ht="17" spans="1:6">
       <c r="A34" s="2" t="s">
@@ -6681,7 +6708,7 @@
       <c r="E34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" ht="17" spans="1:6">
       <c r="A35" s="2" t="s">
@@ -6699,7 +6726,7 @@
       <c r="E35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" ht="17" spans="1:6">
       <c r="A36" s="2" t="s">
@@ -6717,7 +6744,7 @@
       <c r="E36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" ht="17" spans="1:6">
       <c r="A37" s="2" t="s">
@@ -6735,7 +6762,7 @@
       <c r="E37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:6">
       <c r="A38" s="2" t="s">
@@ -6753,7 +6780,7 @@
       <c r="E38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:6">
       <c r="A39" s="2" t="s">
@@ -6771,7 +6798,7 @@
       <c r="E39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" ht="18" spans="1:6">
       <c r="A40" s="1" t="s">
@@ -6789,7 +6816,7 @@
       <c r="E40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:6">
       <c r="A41" s="1" t="s">
@@ -6807,7 +6834,7 @@
       <c r="E41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:6">
       <c r="A42" s="1" t="s">
@@ -6825,7 +6852,7 @@
       <c r="E42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" ht="18" spans="1:6">
       <c r="A43" s="1" t="s">
@@ -6843,7 +6870,7 @@
       <c r="E43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" ht="18" spans="1:6">
       <c r="A44" s="1" t="s">
@@ -6861,7 +6888,7 @@
       <c r="E44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" ht="18" spans="1:6">
       <c r="A45" s="1" t="s">
@@ -6879,7 +6906,7 @@
       <c r="E45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" ht="18" spans="1:6">
       <c r="A46" s="1" t="s">
@@ -6897,7 +6924,7 @@
       <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" ht="18" spans="1:6">
       <c r="A47" s="1" t="s">
@@ -6915,7 +6942,7 @@
       <c r="E47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" ht="18" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -6933,7 +6960,7 @@
       <c r="E48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" ht="18" spans="1:6">
       <c r="A49" s="1" t="s">
@@ -6951,7 +6978,7 @@
       <c r="E49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" ht="18" spans="1:6">
       <c r="A50" s="1" t="s">
@@ -6969,7 +6996,7 @@
       <c r="E50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" ht="18" spans="1:6">
       <c r="A51" s="1" t="s">
@@ -6987,7 +7014,7 @@
       <c r="E51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" ht="18" spans="1:6">
       <c r="A52" s="1" t="s">
@@ -7005,7 +7032,7 @@
       <c r="E52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" ht="18" spans="1:6">
       <c r="A53" s="1" t="s">
@@ -7023,7 +7050,7 @@
       <c r="E53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" ht="18" spans="1:6">
       <c r="A54" s="1" t="s">
@@ -7041,7 +7068,7 @@
       <c r="E54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" ht="18" spans="1:6">
       <c r="A55" s="1" t="s">
@@ -7059,7 +7086,7 @@
       <c r="E55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" ht="18" spans="1:6">
       <c r="A56" s="1" t="s">
@@ -7077,7 +7104,7 @@
       <c r="E56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" ht="18" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -7095,7 +7122,7 @@
       <c r="E57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" ht="18" spans="1:6">
       <c r="A58" s="1" t="s">
@@ -7113,7 +7140,7 @@
       <c r="E58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" ht="18" spans="1:6">
       <c r="A59" s="1" t="s">
@@ -7131,7 +7158,7 @@
       <c r="E59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" ht="18" spans="1:6">
       <c r="A60" s="1" t="s">
@@ -7149,7 +7176,7 @@
       <c r="E60" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" ht="18" spans="1:6">
       <c r="A61" s="1" t="s">
@@ -7167,7 +7194,7 @@
       <c r="E61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" ht="18" spans="1:6">
       <c r="A62" s="1" t="s">
@@ -7185,7 +7212,7 @@
       <c r="E62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" ht="18" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -7203,7 +7230,7 @@
       <c r="E63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" ht="18" spans="1:6">
       <c r="A64" s="1" t="s">
@@ -7221,7 +7248,7 @@
       <c r="E64" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" ht="18" spans="1:6">
       <c r="A65" s="1" t="s">
@@ -7239,7 +7266,7 @@
       <c r="E65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" ht="18" spans="1:6">
       <c r="A66" s="1" t="s">
@@ -7257,7 +7284,7 @@
       <c r="E66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" ht="18" spans="1:6">
       <c r="A67" s="1" t="s">
@@ -7275,7 +7302,7 @@
       <c r="E67" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" ht="18" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -7293,7 +7320,7 @@
       <c r="E68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:6">
       <c r="A69" s="1" t="s">
@@ -7311,7 +7338,7 @@
       <c r="E69" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" ht="18" spans="1:6">
       <c r="A70" s="1" t="s">
@@ -7329,7 +7356,7 @@
       <c r="E70" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" ht="18" spans="1:6">
       <c r="A71" s="1" t="s">
@@ -7347,7 +7374,7 @@
       <c r="E71" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" ht="18" spans="1:6">
       <c r="A72" s="1" t="s">
@@ -7365,7 +7392,7 @@
       <c r="E72" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" ht="18" spans="1:6">
       <c r="A73" s="1" t="s">
@@ -7383,7 +7410,7 @@
       <c r="E73" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" ht="18" spans="1:6">
       <c r="A74" s="1" t="s">
@@ -7401,7 +7428,7 @@
       <c r="E74" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" ht="18" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -7419,7 +7446,7 @@
       <c r="E75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" ht="18" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -7437,7 +7464,7 @@
       <c r="E76" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" ht="18" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -7455,7 +7482,7 @@
       <c r="E77" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" ht="18" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -7473,7 +7500,7 @@
       <c r="E78" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -7491,7 +7518,7 @@
       <c r="E79" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" ht="18" spans="1:6">
       <c r="A80" s="1" t="s">
@@ -7509,7 +7536,7 @@
       <c r="E80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" ht="18" spans="1:6">
       <c r="A81" s="1" t="s">
@@ -7527,7 +7554,7 @@
       <c r="E81" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" ht="18" spans="1:6">
       <c r="A82" s="1" t="s">
@@ -7545,7 +7572,7 @@
       <c r="E82" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" ht="18" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -7563,7 +7590,7 @@
       <c r="E83" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" ht="18" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -7581,7 +7608,7 @@
       <c r="E84" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" ht="18" spans="1:6">
       <c r="A85" s="1" t="s">
@@ -7599,7 +7626,7 @@
       <c r="E85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" ht="18" spans="1:6">
       <c r="A86" s="1" t="s">
@@ -7617,7 +7644,7 @@
       <c r="E86" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" ht="18" spans="1:6">
       <c r="A87" s="1" t="s">
@@ -7635,7 +7662,7 @@
       <c r="E87" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" ht="18" spans="1:6">
       <c r="A88" s="1" t="s">
@@ -7653,7 +7680,7 @@
       <c r="E88" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" ht="18" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -7671,7 +7698,7 @@
       <c r="E89" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" ht="18" spans="1:6">
       <c r="A90" s="1" t="s">
@@ -7689,17 +7716,17 @@
       <c r="E90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" ht="18" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>252</v>
@@ -7707,17 +7734,17 @@
       <c r="E91" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" ht="18" spans="1:6">
-      <c r="A92" s="4" t="s">
-        <v>296</v>
+      <c r="A92" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>252</v>
@@ -7725,17 +7752,17 @@
       <c r="E92" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" ht="18" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>252</v>
@@ -7743,17 +7770,17 @@
       <c r="E93" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" ht="18" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>252</v>
@@ -7761,17 +7788,17 @@
       <c r="E94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" ht="18" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>252</v>
@@ -7779,1085 +7806,1085 @@
       <c r="E95" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" ht="18" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F96" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" ht="18" spans="1:6">
       <c r="A97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" ht="18" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F98" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" ht="18" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F99" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" ht="18" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F100" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" ht="18" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F101" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" ht="18" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F102" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" ht="18" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F103" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" ht="18" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F104" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" ht="18" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F105" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" ht="18" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F106" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" ht="18" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F107" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" ht="18" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" ht="18" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="A109" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="C109" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="D109" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" ht="18" spans="1:6">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="E110" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" ht="18" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="A111" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F111" s="1"/>
+      <c r="D111" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" ht="18" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F112" s="1"/>
+      <c r="B112" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" ht="18" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F113" s="1"/>
+      <c r="B113" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" ht="34" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F114" s="1"/>
+      <c r="B114" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" ht="34" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="A115" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F115" s="1"/>
+      <c r="B115" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" ht="34" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="A116" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F116" s="1"/>
+      <c r="B116" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" ht="34" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="A117" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F117" s="1"/>
+      <c r="B117" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" ht="18" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F118" s="1"/>
+      <c r="B118" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" ht="18" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="A119" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F119" s="1"/>
+      <c r="B119" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" ht="51" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="A120" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F120" s="1"/>
+      <c r="B120" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" ht="18" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="A121" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F121" s="1"/>
+      <c r="B121" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" ht="18" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F122" s="1"/>
+      <c r="B122" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" ht="18" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="B123" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F123" s="1"/>
+      <c r="E123" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" ht="18" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="C124" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="D124" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" ht="18" spans="1:6">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="E125" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" ht="18" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F126" s="1"/>
+      <c r="B126" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" ht="18" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F127" s="1"/>
+      <c r="A127" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" ht="18" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="D128" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" ht="18" spans="1:6">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="E129" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F129" s="1"/>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" ht="18" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="A130" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F130" s="1"/>
+      <c r="B130" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" ht="18" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F131" s="1"/>
+      <c r="B131" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" ht="18" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F132" s="1"/>
+      <c r="B132" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" ht="18" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="A133" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F133" s="1"/>
+      <c r="B133" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" ht="18" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F134" s="1"/>
+      <c r="B134" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="14680"/>
+    <workbookView windowWidth="24460" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="471">
   <si>
     <r>
       <rPr>
@@ -876,7 +876,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C8R双鱼座救援、C8R</t>
+      <t>C8R双鱼座救援、C8R、c8r</t>
     </r>
   </si>
   <si>
@@ -912,7 +912,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C8X双鱼座远征、C8X</t>
+      <t>C8X双鱼座远征、C8X、c8x</t>
     </r>
   </si>
   <si>
@@ -984,7 +984,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>F7C大黄蜂、F7C</t>
+      <t>F7C大黄蜂、F7C、f7c</t>
     </r>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>F7C-M超级大黄蜂、F7C-M、F7CM</t>
+      <t>F7C-M超级大黄蜂、F7C-M、F7CM、f7cm、f7c-m</t>
     </r>
   </si>
   <si>
@@ -1056,7 +1056,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>F7C-R大黄蜂追踪者、F7C-R、F7CR</t>
+      <t>F7C-R大黄蜂追踪者、F7C-R、F7CR、f7cr、f7c-r</t>
     </r>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>F7C-S大黄蜂幽灵、F7C-S、F7CS</t>
+      <t>F7C-S大黄蜂幽灵、F7C-S、F7CS、f7cs、f7c-s</t>
     </r>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>F8C闪电、F8C</t>
+      <t>F8C闪电、F8C、f8c</t>
     </r>
   </si>
   <si>
@@ -1512,7 +1512,55 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Nox、诺克斯</t>
+      <t>Nox、诺克斯、nox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>San'tok.yāi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>santokyai</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桑托起亚、大青椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xnaa</t>
     </r>
   </si>
   <si>
@@ -1608,7 +1656,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MPUV货运、MPUV运输</t>
+      <t>MPUV货运、MPUV运输、mpuv货运</t>
     </r>
   </si>
   <si>
@@ -1644,7 +1692,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MPUV载人</t>
+      <t>MPUV载人、mpuv载人</t>
     </r>
   </si>
   <si>
@@ -1692,6 +1740,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>SRV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srv、SRV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>argo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Defender</t>
     </r>
   </si>
@@ -2052,7 +2148,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大力神A2、A2</t>
+      <t>大力神A2、A2、a2</t>
     </r>
   </si>
   <si>
@@ -2184,7 +2280,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大力神C2、C2</t>
+      <t>大力神C2、C2、c2</t>
     </r>
   </si>
   <si>
@@ -2220,7 +2316,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大力神M2、M2</t>
+      <t>大力神M2、M2、m2</t>
     </r>
   </si>
   <si>
@@ -2268,6 +2364,90 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>C1 Spirit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spirit_c1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c1、C1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1 Spirit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spirit_a1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1、A1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Buccaneer</t>
     </r>
   </si>
@@ -2712,6 +2892,90 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Cutter Rambler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cutter_rambler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小刀漫步者、小刀漫游者、小刀探索</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cutter Scout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cutter_scout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小刀侦察、小刀侦察者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Blade (replica)</t>
     </r>
   </si>
@@ -2940,7 +3204,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P52梅林、p52、梅林</t>
+      <t>P52梅林、p52、P52</t>
     </r>
   </si>
   <si>
@@ -3000,7 +3264,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P72阿基米、德阿基米德、P72、</t>
+      <t>P72阿基米、德阿基米德、P72、p72</t>
     </r>
   </si>
   <si>
@@ -3096,7 +3360,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自由枪骑兵DUR、自由DUR</t>
+      <t>自由枪骑兵DUR、自由DUR、自由枪骑兵dur</t>
     </r>
   </si>
   <si>
@@ -3132,7 +3396,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自由枪骑兵MAX、自由MAX</t>
+      <t>自由枪骑兵MAX、自由MAX、自由枪骑兵max</t>
     </r>
   </si>
   <si>
@@ -3168,7 +3432,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自由枪骑兵MIS、自由MIS</t>
+      <t>自由枪骑兵MIS、自由MIS、自由枪骑兵mis</t>
     </r>
   </si>
   <si>
@@ -3204,7 +3468,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>货A、HullA、货-A、Hull-A</t>
+      <t>货A、HullA、货-A、Hull-A、货a</t>
     </r>
   </si>
   <si>
@@ -3240,7 +3504,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>货C、HullC、货-C、Hull-C</t>
+      <t>货C、HullC、货-C、Hull-C、货c</t>
     </r>
   </si>
   <si>
@@ -3528,7 +3792,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>狂怒MX、愤怒MX</t>
+      <t>狂怒MX、愤怒MX、狂怒mx</t>
     </r>
   </si>
   <si>
@@ -3612,7 +3876,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>狂怒LX、愤怒LX</t>
+      <t>狂怒LX、愤怒LX、狂怒lx</t>
     </r>
   </si>
   <si>
@@ -3684,7 +3948,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>剃刀-EX、剃刀EX</t>
+      <t>剃刀-EX、剃刀EX、狂怒ex</t>
     </r>
   </si>
   <si>
@@ -3720,7 +3984,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>剃刀-LX、剃刀LX</t>
+      <t>剃刀-LX、剃刀LX、狂怒lx</t>
     </r>
   </si>
   <si>
@@ -4044,6 +4308,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>85X、85x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>890 Jump</t>
     </r>
   </si>
@@ -4116,6 +4392,126 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Origin X1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1、X1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orig</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Origin X1 Force</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1_force</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1武装、X1武装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Origin X1 Velocity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1_velocity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x1速度、x1速率、x1迅疾、X1速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Aurora CL</t>
     </r>
   </si>
@@ -4140,7 +4536,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>极光CL</t>
+      <t>极光CL、极光cl</t>
     </r>
   </si>
   <si>
@@ -4200,7 +4596,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>极光ES</t>
+      <t>极光ES、极光es</t>
     </r>
   </si>
   <si>
@@ -4236,6 +4632,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>极光LN、极光ln</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Aurora LX</t>
     </r>
   </si>
@@ -4260,7 +4668,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>极光LX</t>
+      <t>极光LX、极光lx</t>
     </r>
   </si>
   <si>
@@ -4296,7 +4704,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>极光MR</t>
+      <t>极光MR、极光mr</t>
     </r>
   </si>
   <si>
@@ -4704,7 +5112,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PTV、老头乐</t>
+      <t>PTV、老头乐、ptv</t>
     </r>
   </si>
   <si>
@@ -4764,7 +5172,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ROC、矿车</t>
+      <t>ROC、矿车、roc</t>
     </r>
   </si>
   <si>
@@ -4800,7 +5208,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ROC-DS、双人矿车</t>
+      <t>ROC-DS、双人矿车、roc-ds、rocds</t>
     </r>
   </si>
   <si>
@@ -4836,6 +5244,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>STV、stv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Cyclone</t>
     </r>
   </si>
@@ -4920,7 +5340,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>旋风AA</t>
+      <t>旋风AA、旋风aa</t>
     </r>
   </si>
   <si>
@@ -4956,7 +5376,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>旋风MT</t>
+      <t>旋风MT、旋风mt</t>
     </r>
   </si>
   <si>
@@ -4992,7 +5412,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>旋风RC</t>
+      <t>旋风RC、旋风rc</t>
     </r>
   </si>
   <si>
@@ -5028,7 +5448,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>旋风RN</t>
+      <t>旋风RN、旋风rn</t>
     </r>
   </si>
   <si>
@@ -5064,7 +5484,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>旋风TR</t>
+      <t>旋风TR、旋风tr</t>
     </r>
   </si>
   <si>
@@ -5101,13 +5521,157 @@
         <scheme val="minor"/>
       </rPr>
       <t>新星、新星坦克</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>storm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风暴、暴风、风暴坦克、暴风坦克</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tmbl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storm AA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>storm_aa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风暴、暴风、风暴防空、暴风AA、风暴aa、暴风aa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Syulen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>syulen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>速伦、西伦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gama</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gatac</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -5738,7 +6302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5759,9 +6323,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6087,8 +6648,8 @@
   <sheetPr/>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E108"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -6800,7 +7361,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18" spans="1:6">
+    <row r="40" ht="17" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
@@ -6810,119 +7371,119 @@
       <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:6">
       <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:6">
       <c r="A42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F42" s="4"/>
     </row>
     <row r="43" ht="18" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" ht="18" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" ht="17" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" ht="18" spans="1:6">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" ht="18" spans="1:6">
       <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F46" s="4"/>
     </row>
@@ -6937,100 +7498,100 @@
         <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" ht="18" spans="1:6">
       <c r="A48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" ht="18" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" ht="18" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" ht="18" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" ht="18" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -7045,10 +7606,10 @@
         <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -7063,82 +7624,82 @@
         <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" ht="18" spans="1:6">
       <c r="A55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" ht="18" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" ht="18" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" ht="18" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -7153,14 +7714,14 @@
         <v>194</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18" spans="1:6">
+    <row r="60" ht="17" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>195</v>
       </c>
@@ -7170,281 +7731,281 @@
       <c r="C60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>190</v>
+      <c r="D60" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18" spans="1:6">
+    <row r="61" ht="17" spans="1:6">
       <c r="A61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F61" s="4"/>
     </row>
     <row r="62" ht="18" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" ht="18" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" ht="18" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" ht="18" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" ht="18" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" ht="18" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" ht="18" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" ht="18" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" ht="18" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" ht="18" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" ht="18" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" ht="18" spans="1:6">
+    <row r="74" ht="17" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" ht="18" spans="1:6">
+    <row r="75" ht="17" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -7459,28 +8020,28 @@
         <v>248</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" ht="18" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -7495,16 +8056,16 @@
         <v>256</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>258</v>
@@ -7513,10 +8074,10 @@
         <v>259</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -7531,10 +8092,10 @@
         <v>262</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F80" s="4"/>
     </row>
@@ -7549,1061 +8110,1181 @@
         <v>265</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" ht="18" spans="1:6">
       <c r="A82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" ht="18" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" ht="18" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" ht="18" spans="1:6">
       <c r="A85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" ht="18" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" ht="18" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F87" s="4"/>
     </row>
     <row r="88" ht="18" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" ht="18" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F89" s="4"/>
     </row>
     <row r="90" ht="18" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" ht="18" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F91" s="4"/>
     </row>
     <row r="92" ht="18" spans="1:6">
-      <c r="A92" s="5" t="s">
-        <v>297</v>
+      <c r="A92" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F92" s="4"/>
     </row>
     <row r="93" ht="18" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F93" s="4"/>
     </row>
     <row r="94" ht="18" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F94" s="4"/>
     </row>
     <row r="95" ht="18" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F95" s="4"/>
     </row>
     <row r="96" ht="18" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F96" s="4"/>
     </row>
     <row r="97" ht="18" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F97" s="4"/>
     </row>
     <row r="98" ht="18" spans="1:6">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F98" s="4"/>
     </row>
     <row r="99" ht="18" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F99" s="4"/>
     </row>
     <row r="100" ht="18" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F100" s="4"/>
     </row>
     <row r="101" ht="18" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F101" s="4"/>
     </row>
     <row r="102" ht="18" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F102" s="4"/>
     </row>
     <row r="103" ht="18" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F103" s="4"/>
     </row>
     <row r="104" ht="18" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F104" s="4"/>
     </row>
     <row r="105" ht="18" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F105" s="4"/>
     </row>
     <row r="106" ht="18" spans="1:6">
       <c r="A106" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F106" s="4"/>
     </row>
     <row r="107" ht="18" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F107" s="4"/>
     </row>
     <row r="108" ht="18" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F108" s="4"/>
     </row>
     <row r="109" ht="18" spans="1:6">
-      <c r="A109" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>345</v>
+      <c r="A109" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F109" s="4"/>
     </row>
     <row r="110" ht="18" spans="1:6">
-      <c r="A110" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>345</v>
+      <c r="A110" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F110" s="4"/>
     </row>
     <row r="111" ht="18" spans="1:6">
-      <c r="A111" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>345</v>
+      <c r="A111" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F111" s="4"/>
     </row>
     <row r="112" ht="18" spans="1:6">
-      <c r="A112" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>345</v>
+      <c r="A112" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F112" s="4"/>
     </row>
     <row r="113" ht="18" spans="1:6">
-      <c r="A113" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>345</v>
+      <c r="A113" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" ht="34" spans="1:6">
-      <c r="A114" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>345</v>
+    <row r="114" ht="18" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="34" spans="1:6">
-      <c r="A115" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>345</v>
+    <row r="115" ht="17" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="34" spans="1:6">
-      <c r="A116" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>345</v>
+    <row r="116" ht="17" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" ht="34" spans="1:6">
-      <c r="A117" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="4" t="s">
+    <row r="117" ht="17" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>345</v>
+      <c r="E117" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F117" s="4"/>
     </row>
     <row r="118" ht="18" spans="1:6">
-      <c r="A118" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>345</v>
+      <c r="A118" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F118" s="4"/>
     </row>
     <row r="119" ht="18" spans="1:6">
-      <c r="A119" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>345</v>
+      <c r="A119" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="51" spans="1:6">
-      <c r="A120" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C120" s="6" t="s">
+    <row r="120" ht="18" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>345</v>
+      <c r="E120" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F120" s="4"/>
     </row>
     <row r="121" ht="18" spans="1:6">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="F121" s="4"/>
     </row>
     <row r="122" ht="18" spans="1:6">
-      <c r="A122" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>345</v>
+      <c r="A122" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18" spans="1:6">
-      <c r="A123" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>387</v>
+    <row r="123" ht="34" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18" spans="1:6">
-      <c r="A124" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>392</v>
+    <row r="124" ht="34" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" ht="18" spans="1:6">
-      <c r="A125" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>392</v>
+    <row r="125" ht="34" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18" spans="1:6">
-      <c r="A126" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>392</v>
+    <row r="126" ht="34" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F126" s="4"/>
     </row>
     <row r="127" ht="18" spans="1:6">
-      <c r="A127" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>392</v>
+      <c r="A127" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F127" s="4"/>
     </row>
     <row r="128" ht="18" spans="1:6">
-      <c r="A128" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>405</v>
+      <c r="A128" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18" spans="1:6">
-      <c r="A129" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>405</v>
+    <row r="129" ht="51" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F129" s="4"/>
     </row>
     <row r="130" ht="18" spans="1:6">
-      <c r="A130" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>405</v>
+      <c r="A130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F130" s="4"/>
     </row>
     <row r="131" ht="18" spans="1:6">
-      <c r="A131" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>405</v>
+      <c r="A131" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F131" s="4"/>
     </row>
     <row r="132" ht="18" spans="1:6">
-      <c r="A132" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>405</v>
+      <c r="A132" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F132" s="4"/>
     </row>
     <row r="133" ht="18" spans="1:6">
-      <c r="A133" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>405</v>
+      <c r="A133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F133" s="4"/>
     </row>
     <row r="134" ht="18" spans="1:6">
-      <c r="A134" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>405</v>
+      <c r="A134" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+    <row r="135" ht="18" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+    <row r="136" ht="18" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="4"/>
+    <row r="137" ht="18" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="4"/>
+    <row r="138" ht="18" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="4"/>
+    <row r="139" ht="18" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="4"/>
+    <row r="140" ht="18" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="4"/>
+    <row r="141" ht="18" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="4"/>
+    <row r="142" ht="18" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="4"/>
+    <row r="143" ht="18" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="4"/>
+    <row r="144" ht="17" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="4"/>
+    <row r="145" ht="17" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="4"/>
+    <row r="146" ht="17" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6">
@@ -8737,7 +9418,7 @@
     <row r="163" spans="1:6">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="8"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14080"/>
+    <workbookView windowWidth="24460" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1402,7 +1402,7 @@
     <t>Syulen</t>
   </si>
   <si>
-    <t>gama_syulen</t>
+    <t>syulen</t>
   </si>
   <si>
     <t>速伦、西伦</t>
@@ -2389,7 +2389,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E146"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="14080"/>
+    <workbookView windowWidth="24460" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="490">
   <si>
     <t>英文名</t>
   </si>
@@ -163,6 +176,15 @@
     <t>军刀渡鸦、渡鸦</t>
   </si>
   <si>
+    <t>Sabre Firebird</t>
+  </si>
+  <si>
+    <t>sabre_firebird</t>
+  </si>
+  <si>
+    <t>军刀火鸟</t>
+  </si>
+  <si>
     <t>Vanguard Harbinger</t>
   </si>
   <si>
@@ -286,6 +308,33 @@
     <t>F7C-S大黄蜂幽灵、F7C-S、F7CS、f7cs、f7c-s</t>
   </si>
   <si>
+    <t>F7A Hornet Mk I</t>
+  </si>
+  <si>
+    <t>hornet_f7a_mk1</t>
+  </si>
+  <si>
+    <t>F7A大黄蜂</t>
+  </si>
+  <si>
+    <t>F7C Hornet Mk II</t>
+  </si>
+  <si>
+    <t>hornet_f7c_mk2</t>
+  </si>
+  <si>
+    <t>F7CMK2、f7cmk2、f7cmk、F7CMK</t>
+  </si>
+  <si>
+    <t>F7A Hornet Mk II</t>
+  </si>
+  <si>
+    <t>hornet_f7a_mk2</t>
+  </si>
+  <si>
+    <t>F7AMK2、f7amk2、f7amk、F7AMK</t>
+  </si>
+  <si>
     <t>F8C Lightning</t>
   </si>
   <si>
@@ -436,6 +485,15 @@
     <t>MPUV载人、mpuv载人</t>
   </si>
   <si>
+    <t>MPUV Tractor</t>
+  </si>
+  <si>
+    <t>mpuv_1t</t>
+  </si>
+  <si>
+    <t>MPUV拖车</t>
+  </si>
+  <si>
     <t>RAFT</t>
   </si>
   <si>
@@ -1000,6 +1058,24 @@
     <t>剃刀-LX、剃刀LX、狂怒lx</t>
   </si>
   <si>
+    <t>Pulse lx</t>
+  </si>
+  <si>
+    <t>pulse_lx</t>
+  </si>
+  <si>
+    <t>脉冲-LX</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>脉冲</t>
+  </si>
+  <si>
     <t>100i</t>
   </si>
   <si>
@@ -1237,7 +1313,7 @@
     <t>scorpius_Antares</t>
   </si>
   <si>
-    <t>天蝎座星宿Ⅱ、星宿二、天蝎星宿、天蝎座星宿</t>
+    <t>天蝎座星宿Ⅱ、星宿二、天蝎星宿、天蝎座星宿、天蝎星宿2</t>
   </si>
   <si>
     <t>Ursa</t>
@@ -1247,6 +1323,15 @@
   </si>
   <si>
     <t>大熊座</t>
+  </si>
+  <si>
+    <t>Ursa medivac</t>
+  </si>
+  <si>
+    <t>ursa_medivac</t>
+  </si>
+  <si>
+    <t>大熊座医疗</t>
   </si>
   <si>
     <t>Lynx</t>
@@ -2048,7 +2133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2063,6 +2148,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2388,8 +2479,8 @@
   <sheetPr/>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F146" sqref="A1:F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2752,28 +2843,28 @@
         <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2788,10 +2879,10 @@
         <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2806,10 +2897,10 @@
         <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2824,10 +2915,10 @@
         <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2842,10 +2933,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2860,15 +2951,15 @@
         <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="17" spans="1:6">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2878,10 +2969,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -2896,10 +2987,10 @@
         <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -2910,14 +3001,14 @@
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2932,10 +3023,10 @@
         <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2950,10 +3041,10 @@
         <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2968,10 +3059,10 @@
         <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2982,14 +3073,14 @@
       <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -3004,10 +3095,10 @@
         <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -3022,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -3040,10 +3131,10 @@
         <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -3058,14 +3149,14 @@
         <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" ht="17.6" spans="1:6">
+    <row r="38" ht="17" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
@@ -3075,77 +3166,77 @@
       <c r="C38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" ht="17" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" ht="17.6" spans="1:6">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" ht="17" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="17" spans="1:6">
+      <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" ht="17.6" spans="1:6">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="17.6" spans="1:6">
+      <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" ht="17.6" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>132</v>
@@ -3156,14 +3247,14 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" ht="17.6" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>137</v>
+      <c r="A43" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>132</v>
@@ -3173,39 +3264,39 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" ht="17.6" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" ht="17" spans="1:6">
+    <row r="45" ht="17.6" spans="1:6">
       <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -3220,118 +3311,116 @@
         <v>148</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" ht="17.6" spans="1:6">
       <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" ht="17.6" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" ht="17.6" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" ht="17" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" ht="17.6" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>154</v>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" ht="17.6" spans="1:6">
       <c r="A51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" ht="17.6" spans="1:6">
       <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -3346,10 +3435,10 @@
         <v>173</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3364,104 +3453,104 @@
         <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" ht="17.6" spans="1:6">
       <c r="A55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" ht="17.6" spans="1:6">
       <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" ht="17.6" spans="1:6">
       <c r="A57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" ht="17.6" spans="1:6">
       <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" ht="17.6" spans="1:6">
       <c r="A59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" ht="17" spans="1:6">
+    <row r="60" ht="17.6" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>194</v>
       </c>
@@ -3471,15 +3560,15 @@
       <c r="C60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>177</v>
+      <c r="D60" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" ht="17" spans="1:6">
+    <row r="61" ht="17.6" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>197</v>
       </c>
@@ -3489,11 +3578,11 @@
       <c r="C61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>177</v>
+      <c r="D61" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3508,100 +3597,100 @@
         <v>202</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" ht="17.6" spans="1:6">
       <c r="A63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" ht="17.6" spans="1:6">
       <c r="A64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" ht="17" spans="1:6">
+      <c r="A65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" ht="17.6" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" ht="17" spans="1:6">
+      <c r="A66" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" ht="17.6" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>203</v>
+      <c r="D66" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" ht="17.6" spans="1:6">
       <c r="A67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -3616,10 +3705,10 @@
         <v>222</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -3634,10 +3723,10 @@
         <v>225</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -3652,10 +3741,10 @@
         <v>228</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -3670,10 +3759,10 @@
         <v>231</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -3688,10 +3777,10 @@
         <v>234</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -3700,286 +3789,286 @@
         <v>235</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" ht="17.6" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>203</v>
+        <v>240</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" ht="17" spans="1:6">
+    <row r="75" ht="17.6" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" ht="17.6" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F76" s="1"/>
     </row>
     <row r="77" ht="17.6" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78" ht="17.6" spans="1:6">
       <c r="A78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" ht="17.6" spans="1:6">
-      <c r="A79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" ht="17" spans="1:6">
+      <c r="A80" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" ht="17.6" spans="1:6">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>254</v>
+      <c r="D80" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" ht="17.6" spans="1:6">
       <c r="A81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" ht="17.6" spans="1:6">
       <c r="A82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="17.6" spans="1:6">
       <c r="A83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84" ht="17.6" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" ht="17.6" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="17.6" spans="1:6">
       <c r="A86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" ht="17.6" spans="1:6">
       <c r="A87" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88" ht="17.6" spans="1:6">
       <c r="A88" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -3994,10 +4083,10 @@
         <v>290</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -4012,10 +4101,10 @@
         <v>293</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -4030,10 +4119,10 @@
         <v>296</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -4048,10 +4137,10 @@
         <v>299</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -4066,10 +4155,10 @@
         <v>302</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -4084,10 +4173,10 @@
         <v>305</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -4102,10 +4191,10 @@
         <v>308</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -4120,100 +4209,100 @@
         <v>311</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="F96" s="1"/>
     </row>
     <row r="97" ht="17.6" spans="1:6">
       <c r="A97" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" ht="17.6" spans="1:6">
+      <c r="A98" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" ht="17.6" spans="1:6">
-      <c r="A98" s="4" t="s">
+      <c r="B98" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" ht="17.6" spans="1:6">
       <c r="A99" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" ht="17.6" spans="1:6">
       <c r="A100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101" ht="17.6" spans="1:6">
       <c r="A101" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -4222,22 +4311,22 @@
         <v>328</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" ht="17.6" spans="1:6">
+      <c r="A103" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" ht="17.6" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>332</v>
@@ -4246,10 +4335,10 @@
         <v>333</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -4258,220 +4347,220 @@
         <v>334</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="17.6" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="17.6" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="17.6" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" ht="17.6" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" ht="17.6" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" ht="17.6" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" ht="17.6" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" ht="17.6" spans="1:6">
       <c r="A112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" ht="17.6" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" ht="17.6" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" ht="17" spans="1:6">
+    <row r="115" ht="17.6" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" ht="17" spans="1:6">
+    <row r="116" ht="17.6" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>365</v>
@@ -4479,15 +4568,15 @@
       <c r="C116" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>330</v>
+      <c r="D116" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" ht="17" spans="1:6">
+    <row r="117" ht="17.6" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>367</v>
       </c>
@@ -4497,11 +4586,11 @@
       <c r="C117" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>330</v>
+      <c r="D117" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F117" s="1"/>
     </row>
@@ -4512,144 +4601,144 @@
       <c r="B118" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>372</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" ht="17.6" spans="1:6">
       <c r="A119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" ht="17.6" spans="1:6">
       <c r="A120" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" ht="17.6" spans="1:6">
       <c r="A121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" ht="17" spans="1:6">
+      <c r="A122" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" ht="17.6" spans="1:6">
-      <c r="A122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" ht="17" spans="1:6">
+      <c r="A123" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" ht="34" spans="1:6">
-      <c r="A123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" ht="17" spans="1:6">
+      <c r="A124" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" ht="34" spans="1:6">
-      <c r="A124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" ht="17.6" spans="1:6">
+      <c r="A125" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" ht="34" spans="1:6">
-      <c r="A125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" ht="34" spans="1:6">
+    <row r="126" ht="17.6" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>396</v>
       </c>
@@ -4660,10 +4749,10 @@
         <v>398</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -4678,10 +4767,10 @@
         <v>401</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -4696,14 +4785,14 @@
         <v>404</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" ht="51" spans="1:6">
+    <row r="129" ht="17.6" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>405</v>
       </c>
@@ -4714,14 +4803,14 @@
         <v>407</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" ht="17.6" spans="1:6">
+    <row r="130" ht="34" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>408</v>
       </c>
@@ -4732,284 +4821,284 @@
         <v>410</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" ht="17.6" spans="1:6">
+    <row r="131" ht="34" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>413</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" ht="17.6" spans="1:6">
+    <row r="132" ht="34" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>416</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" ht="34" spans="1:6">
+      <c r="A133" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" ht="17.6" spans="1:6">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D133" s="3" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" ht="17.6" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="17.6" spans="1:6">
       <c r="A135" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" ht="51" spans="1:6">
+      <c r="A136" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" ht="17.6" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="D136" s="3" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="17.6" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="17.6" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="17.6" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" ht="17.6" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>435</v>
+        <v>261</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141" ht="17.6" spans="1:6">
       <c r="A141" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="17.6" spans="1:6">
       <c r="A142" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="D142" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="17.6" spans="1:6">
       <c r="A143" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="D143" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" ht="17.6" spans="1:6">
+      <c r="A144" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" ht="17" spans="1:6">
-      <c r="A144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="D144" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" ht="17.6" spans="1:6">
+      <c r="A145" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" ht="17" spans="1:6">
-      <c r="A145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" ht="17" spans="1:6">
+    <row r="146" ht="17.6" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>461</v>
       </c>
@@ -5019,293 +5108,373 @@
       <c r="C146" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" ht="17.6" spans="1:6">
+      <c r="A147" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="1"/>
+    <row r="148" ht="17.6" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="1"/>
+    <row r="149" ht="17.6" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="1"/>
+    <row r="150" ht="17.6" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="1"/>
+    <row r="151" ht="17.6" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="1"/>
+    <row r="152" ht="17" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="1"/>
+    <row r="153" ht="17" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="1"/>
+    <row r="154" ht="17" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="491">
   <si>
     <t>英文名</t>
   </si>
@@ -491,7 +491,7 @@
     <t>mpuv_1t</t>
   </si>
   <si>
-    <t>MPUV拖车</t>
+    <t>MPUV牵引</t>
   </si>
   <si>
     <t>RAFT</t>
@@ -1046,7 +1046,7 @@
     <t>razor_ex</t>
   </si>
   <si>
-    <t>剃刀-EX、剃刀EX、狂怒ex</t>
+    <t>剃刀-EX、剃刀EX、剃刀ex</t>
   </si>
   <si>
     <t>Razor LX</t>
@@ -1055,7 +1055,7 @@
     <t>razor_lx</t>
   </si>
   <si>
-    <t>剃刀-LX、剃刀LX、狂怒lx</t>
+    <t>剃刀-LX、剃刀LX、剃刀lx</t>
   </si>
   <si>
     <t>Pulse lx</t>
@@ -1064,7 +1064,10 @@
     <t>pulse_lx</t>
   </si>
   <si>
-    <t>脉冲-LX</t>
+    <t>脉冲-LX、脉冲LX、脉冲lx</t>
+  </si>
+  <si>
+    <t>mrai</t>
   </si>
   <si>
     <t>Pulse</t>
@@ -2146,11 +2149,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2480,7 +2483,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F146" sqref="A1:F154"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2506,7 +2509,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2524,7 +2527,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2542,7 +2545,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -2560,7 +2563,7 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -2578,7 +2581,7 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -2596,7 +2599,7 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -2614,7 +2617,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -2632,7 +2635,7 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -2650,7 +2653,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -2668,7 +2671,7 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -2686,7 +2689,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -2704,7 +2707,7 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -2722,7 +2725,7 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -2740,7 +2743,7 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -2758,7 +2761,7 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -2776,7 +2779,7 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -2794,7 +2797,7 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2812,7 +2815,7 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
@@ -2830,7 +2833,7 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -2848,7 +2851,7 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
@@ -2866,7 +2869,7 @@
       <c r="E21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -2884,7 +2887,7 @@
       <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
@@ -2902,7 +2905,7 @@
       <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -2920,7 +2923,7 @@
       <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
@@ -2938,7 +2941,7 @@
       <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
@@ -2956,7 +2959,7 @@
       <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -2974,7 +2977,7 @@
       <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" ht="17" spans="1:6">
       <c r="A28" s="2" t="s">
@@ -2992,7 +2995,7 @@
       <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" ht="17" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -3010,7 +3013,7 @@
       <c r="E29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" ht="17" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -3028,7 +3031,7 @@
       <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" ht="17" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -3046,7 +3049,7 @@
       <c r="E31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" ht="17" spans="1:6">
       <c r="A32" s="2" t="s">
@@ -3064,7 +3067,7 @@
       <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" ht="17" spans="1:6">
       <c r="A33" s="2" t="s">
@@ -3082,7 +3085,7 @@
       <c r="E33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" ht="17" spans="1:6">
       <c r="A34" s="2" t="s">
@@ -3100,7 +3103,7 @@
       <c r="E34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" ht="17" spans="1:6">
       <c r="A35" s="2" t="s">
@@ -3118,7 +3121,7 @@
       <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" ht="17" spans="1:6">
       <c r="A36" s="2" t="s">
@@ -3136,7 +3139,7 @@
       <c r="E36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" ht="17" spans="1:6">
       <c r="A37" s="2" t="s">
@@ -3154,7 +3157,7 @@
       <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" ht="17" spans="1:6">
       <c r="A38" s="2" t="s">
@@ -3172,7 +3175,7 @@
       <c r="E38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" ht="17" spans="1:6">
       <c r="A39" s="2" t="s">
@@ -3190,7 +3193,7 @@
       <c r="E39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" ht="17" spans="1:6">
       <c r="A40" s="2" t="s">
@@ -3208,7 +3211,7 @@
       <c r="E40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" ht="17" spans="1:6">
       <c r="A41" s="2" t="s">
@@ -3226,7 +3229,7 @@
       <c r="E41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" ht="17.6" spans="1:6">
       <c r="A42" s="2" t="s">
@@ -3244,7 +3247,7 @@
       <c r="E42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" ht="17.6" spans="1:6">
       <c r="A43" s="2" t="s">
@@ -3262,7 +3265,7 @@
       <c r="E43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
@@ -3280,7 +3283,7 @@
       <c r="E44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" ht="17.6" spans="1:6">
       <c r="A45" s="1" t="s">
@@ -3298,7 +3301,7 @@
       <c r="E45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" ht="17.6" spans="1:6">
       <c r="A46" s="1" t="s">
@@ -3316,7 +3319,7 @@
       <c r="E46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" ht="17.6" spans="1:6">
       <c r="A47" s="1" t="s">
@@ -3334,7 +3337,7 @@
       <c r="E47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" ht="17.6" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3346,11 +3349,13 @@
       <c r="C48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" ht="17.6" spans="1:6">
       <c r="A49" s="1" t="s">
@@ -3368,7 +3373,7 @@
       <c r="E49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" ht="17" spans="1:6">
       <c r="A50" s="1" t="s">
@@ -3386,7 +3391,7 @@
       <c r="E50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" ht="17.6" spans="1:6">
       <c r="A51" s="1" t="s">
@@ -3404,7 +3409,7 @@
       <c r="E51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" ht="17.6" spans="1:6">
       <c r="A52" s="1" t="s">
@@ -3422,7 +3427,7 @@
       <c r="E52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" ht="17.6" spans="1:6">
       <c r="A53" s="1" t="s">
@@ -3440,7 +3445,7 @@
       <c r="E53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" ht="17.6" spans="1:6">
       <c r="A54" s="1" t="s">
@@ -3458,7 +3463,7 @@
       <c r="E54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" ht="17.6" spans="1:6">
       <c r="A55" s="1" t="s">
@@ -3476,7 +3481,7 @@
       <c r="E55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" ht="17.6" spans="1:6">
       <c r="A56" s="1" t="s">
@@ -3494,7 +3499,7 @@
       <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" ht="17.6" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -3512,7 +3517,7 @@
       <c r="E57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" ht="17.6" spans="1:6">
       <c r="A58" s="1" t="s">
@@ -3530,7 +3535,7 @@
       <c r="E58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" ht="17.6" spans="1:6">
       <c r="A59" s="1" t="s">
@@ -3548,7 +3553,7 @@
       <c r="E59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" ht="17.6" spans="1:6">
       <c r="A60" s="1" t="s">
@@ -3566,7 +3571,7 @@
       <c r="E60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" ht="17.6" spans="1:6">
       <c r="A61" s="1" t="s">
@@ -3584,7 +3589,7 @@
       <c r="E61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" ht="17.6" spans="1:6">
       <c r="A62" s="1" t="s">
@@ -3602,7 +3607,7 @@
       <c r="E62" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" ht="17.6" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -3620,7 +3625,7 @@
       <c r="E63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" ht="17.6" spans="1:6">
       <c r="A64" s="1" t="s">
@@ -3638,7 +3643,7 @@
       <c r="E64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" ht="17" spans="1:6">
       <c r="A65" s="1" t="s">
@@ -3656,7 +3661,7 @@
       <c r="E65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" ht="17" spans="1:6">
       <c r="A66" s="1" t="s">
@@ -3674,7 +3679,7 @@
       <c r="E66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" ht="17.6" spans="1:6">
       <c r="A67" s="1" t="s">
@@ -3692,7 +3697,7 @@
       <c r="E67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" ht="17.6" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -3710,7 +3715,7 @@
       <c r="E68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" ht="17.6" spans="1:6">
       <c r="A69" s="1" t="s">
@@ -3728,7 +3733,7 @@
       <c r="E69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" ht="17.6" spans="1:6">
       <c r="A70" s="1" t="s">
@@ -3746,7 +3751,7 @@
       <c r="E70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" ht="17.6" spans="1:6">
       <c r="A71" s="1" t="s">
@@ -3764,7 +3769,7 @@
       <c r="E71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" ht="17.6" spans="1:6">
       <c r="A72" s="1" t="s">
@@ -3782,7 +3787,7 @@
       <c r="E72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" ht="17.6" spans="1:6">
       <c r="A73" s="1" t="s">
@@ -3800,7 +3805,7 @@
       <c r="E73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" ht="17.6" spans="1:6">
       <c r="A74" s="1" t="s">
@@ -3818,7 +3823,7 @@
       <c r="E74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" ht="17.6" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -3836,7 +3841,7 @@
       <c r="E75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" ht="17.6" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -3854,7 +3859,7 @@
       <c r="E76" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" ht="17.6" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -3872,7 +3877,7 @@
       <c r="E77" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" ht="17.6" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -3890,7 +3895,7 @@
       <c r="E78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -3908,7 +3913,7 @@
       <c r="E79" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" ht="17" spans="1:6">
       <c r="A80" s="1" t="s">
@@ -3926,7 +3931,7 @@
       <c r="E80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" ht="17.6" spans="1:6">
       <c r="A81" s="1" t="s">
@@ -3944,7 +3949,7 @@
       <c r="E81" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" ht="17.6" spans="1:6">
       <c r="A82" s="1" t="s">
@@ -3962,7 +3967,7 @@
       <c r="E82" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" ht="17.6" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -3980,7 +3985,7 @@
       <c r="E83" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" ht="17.6" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -3998,7 +4003,7 @@
       <c r="E84" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" ht="17.6" spans="1:6">
       <c r="A85" s="1" t="s">
@@ -4016,7 +4021,7 @@
       <c r="E85" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" ht="17.6" spans="1:6">
       <c r="A86" s="1" t="s">
@@ -4034,7 +4039,7 @@
       <c r="E86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" ht="17.6" spans="1:6">
       <c r="A87" s="1" t="s">
@@ -4052,7 +4057,7 @@
       <c r="E87" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" ht="17.6" spans="1:6">
       <c r="A88" s="1" t="s">
@@ -4070,7 +4075,7 @@
       <c r="E88" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" ht="17.6" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -4088,7 +4093,7 @@
       <c r="E89" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" ht="17.6" spans="1:6">
       <c r="A90" s="1" t="s">
@@ -4106,7 +4111,7 @@
       <c r="E90" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" ht="17.6" spans="1:6">
       <c r="A91" s="1" t="s">
@@ -4124,7 +4129,7 @@
       <c r="E91" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" ht="17.6" spans="1:6">
       <c r="A92" s="1" t="s">
@@ -4142,7 +4147,7 @@
       <c r="E92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" ht="17.6" spans="1:6">
       <c r="A93" s="1" t="s">
@@ -4160,7 +4165,7 @@
       <c r="E93" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" ht="17.6" spans="1:6">
       <c r="A94" s="1" t="s">
@@ -4178,7 +4183,7 @@
       <c r="E94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" ht="17.6" spans="1:6">
       <c r="A95" s="1" t="s">
@@ -4196,7 +4201,7 @@
       <c r="E95" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" ht="17.6" spans="1:6">
       <c r="A96" s="1" t="s">
@@ -4214,7 +4219,7 @@
       <c r="E96" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" ht="17.6" spans="1:6">
       <c r="A97" s="1" t="s">
@@ -4232,7 +4237,7 @@
       <c r="E97" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" ht="17.6" spans="1:6">
       <c r="A98" s="1" t="s">
@@ -4250,7 +4255,7 @@
       <c r="E98" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" ht="17.6" spans="1:6">
       <c r="A99" s="1" t="s">
@@ -4268,7 +4273,7 @@
       <c r="E99" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" ht="17.6" spans="1:6">
       <c r="A100" s="1" t="s">
@@ -4286,7 +4291,7 @@
       <c r="E100" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" ht="17.6" spans="1:6">
       <c r="A101" s="1" t="s">
@@ -4304,7 +4309,7 @@
       <c r="E101" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" ht="17.6" spans="1:6">
       <c r="A102" s="1" t="s">
@@ -4322,10 +4327,10 @@
       <c r="E102" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" ht="17.6" spans="1:6">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4340,7 +4345,7 @@
       <c r="E103" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" ht="17.6" spans="1:6">
       <c r="A104" s="1" t="s">
@@ -4358,7 +4363,7 @@
       <c r="E104" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" ht="17.6" spans="1:6">
       <c r="A105" s="1" t="s">
@@ -4376,7 +4381,7 @@
       <c r="E105" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" ht="17.6" spans="1:6">
       <c r="A106" s="1" t="s">
@@ -4394,7 +4399,7 @@
       <c r="E106" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" ht="17.6" spans="1:6">
       <c r="A107" s="1" t="s">
@@ -4407,1074 +4412,1074 @@
         <v>345</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" ht="17.6" spans="1:6">
       <c r="A108" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" ht="17.6" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F109" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" ht="17.6" spans="1:6">
       <c r="A110" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" ht="17.6" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F111" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" ht="17.6" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F112" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" ht="17.6" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F113" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" ht="17.6" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F114" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" ht="17.6" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F115" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" ht="17.6" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F116" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" ht="17.6" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F117" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" ht="17.6" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F118" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" ht="17.6" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F119" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" ht="17.6" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F120" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" ht="17.6" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F121" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" ht="17" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F122" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" ht="17" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F123" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" ht="17" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F124" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" ht="17.6" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F125" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" ht="17.6" spans="1:6">
       <c r="A126" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" ht="17.6" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F127" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" ht="17.6" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F128" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" ht="17.6" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F129" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" ht="34" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F130" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" ht="34" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F131" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" ht="34" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F132" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" ht="34" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F133" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" ht="17.6" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F134" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" ht="17.6" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F135" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" ht="51" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F136" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" ht="17.6" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F137" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" ht="17.6" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F138" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" ht="17.6" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F139" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" ht="17.6" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F140" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" ht="17.6" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F141" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" ht="17.6" spans="1:6">
       <c r="A142" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F142" s="1"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" ht="17.6" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F143" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" ht="17.6" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F144" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="F144" s="4"/>
     </row>
     <row r="145" ht="17.6" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F145" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" ht="17.6" spans="1:6">
       <c r="A146" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F146" s="1"/>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" ht="17.6" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F147" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" ht="17.6" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F148" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" ht="17.6" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F149" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" ht="17.6" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F150" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" ht="17.6" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F151" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" ht="17" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F152" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" ht="17" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F153" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" ht="17" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F154" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
       <c r="C163" s="7"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
+++ b/my_project/my_html/templates/boat/船舰中英文对照表(1).xlsx
@@ -1058,7 +1058,7 @@
     <t>剃刀-LX、剃刀LX、剃刀lx</t>
   </si>
   <si>
-    <t>Pulse lx</t>
+    <t>Pulse LX</t>
   </si>
   <si>
     <t>pulse_lx</t>
@@ -2136,7 +2136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2149,14 +2149,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2482,8 +2476,8 @@
   <sheetPr/>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2509,7 +2503,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2527,7 +2521,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2545,7 +2539,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -2563,7 +2557,7 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -2581,7 +2575,7 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -2599,7 +2593,7 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -2617,7 +2611,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -2635,7 +2629,7 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -2653,7 +2647,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -2671,7 +2665,7 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -2689,7 +2683,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -2707,7 +2701,7 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -2725,7 +2719,7 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -2743,7 +2737,7 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -2761,7 +2755,7 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -2779,7 +2773,7 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -2797,7 +2791,7 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2815,7 +2809,7 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
@@ -2833,7 +2827,7 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -2851,7 +2845,7 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
@@ -2869,7 +2863,7 @@
       <c r="E21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -2887,7 +2881,7 @@
       <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
@@ -2905,7 +2899,7 @@
       <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -2923,7 +2917,7 @@
       <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
@@ -2941,7 +2935,7 @@
       <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
@@ -2959,7 +2953,7 @@
       <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -2977,7 +2971,7 @@
       <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" ht="17" spans="1:6">
       <c r="A28" s="2" t="s">
@@ -2995,7 +2989,7 @@
       <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" ht="17" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -3013,7 +3007,7 @@
       <c r="E29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" ht="17" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -3031,7 +3025,7 @@
       <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" ht="17" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -3049,7 +3043,7 @@
       <c r="E31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" ht="17" spans="1:6">
       <c r="A32" s="2" t="s">
@@ -3067,7 +3061,7 @@
       <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" ht="17" spans="1:6">
       <c r="A33" s="2" t="s">
@@ -3085,7 +3079,7 @@
       <c r="E33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" ht="17" spans="1:6">
       <c r="A34" s="2" t="s">
@@ -3103,7 +3097,7 @@
       <c r="E34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" ht="17" spans="1:6">
       <c r="A35" s="2" t="s">
@@ -3121,7 +3115,7 @@
       <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" ht="17" spans="1:6">
       <c r="A36" s="2" t="s">
@@ -3139,7 +3133,7 @@
       <c r="E36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" ht="17" spans="1:6">
       <c r="A37" s="2" t="s">
@@ -3157,7 +3151,7 @@
       <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" ht="17" spans="1:6">
       <c r="A38" s="2" t="s">
@@ -3175,7 +3169,7 @@
       <c r="E38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" ht="17" spans="1:6">
       <c r="A39" s="2" t="s">
@@ -3193,7 +3187,7 @@
       <c r="E39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" ht="17" spans="1:6">
       <c r="A40" s="2" t="s">
@@ -3211,7 +3205,7 @@
       <c r="E40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" ht="17" spans="1:6">
       <c r="A41" s="2" t="s">
@@ -3229,7 +3223,7 @@
       <c r="E41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" ht="17.6" spans="1:6">
       <c r="A42" s="2" t="s">
@@ -3247,7 +3241,7 @@
       <c r="E42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" ht="17.6" spans="1:6">
       <c r="A43" s="2" t="s">
@@ -3265,7 +3259,7 @@
       <c r="E43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
@@ -3283,7 +3277,7 @@
       <c r="E44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" ht="17.6" spans="1:6">
       <c r="A45" s="1" t="s">
@@ -3301,7 +3295,7 @@
       <c r="E45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" ht="17.6" spans="1:6">
       <c r="A46" s="1" t="s">
@@ -3319,7 +3313,7 @@
       <c r="E46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" ht="17.6" spans="1:6">
       <c r="A47" s="1" t="s">
@@ -3337,7 +3331,7 @@
       <c r="E47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" ht="17.6" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -3355,7 +3349,7 @@
       <c r="E48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" ht="17.6" spans="1:6">
       <c r="A49" s="1" t="s">
@@ -3373,7 +3367,7 @@
       <c r="E49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" ht="17" spans="1:6">
       <c r="A50" s="1" t="s">
@@ -3391,7 +3385,7 @@
       <c r="E50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" ht="17.6" spans="1:6">
       <c r="A51" s="1" t="s">
@@ -3409,7 +3403,7 @@
       <c r="E51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" ht="17.6" spans="1:6">
       <c r="A52" s="1" t="s">
@@ -3427,7 +3421,7 @@
       <c r="E52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" ht="17.6" spans="1:6">
       <c r="A53" s="1" t="s">
@@ -3445,7 +3439,7 @@
       <c r="E53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" ht="17.6" spans="1:6">
       <c r="A54" s="1" t="s">
@@ -3463,7 +3457,7 @@
       <c r="E54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" ht="17.6" spans="1:6">
       <c r="A55" s="1" t="s">
@@ -3481,7 +3475,7 @@
       <c r="E55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" ht="17.6" spans="1:6">
       <c r="A56" s="1" t="s">
@@ -3499,7 +3493,7 @@
       <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" ht="17.6" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -3517,7 +3511,7 @@
       <c r="E57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" ht="17.6" spans="1:6">
       <c r="A58" s="1" t="s">
@@ -3535,7 +3529,7 @@
       <c r="E58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" ht="17.6" spans="1:6">
       <c r="A59" s="1" t="s">
@@ -3553,7 +3547,7 @@
       <c r="E59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" ht="17.6" spans="1:6">
       <c r="A60" s="1" t="s">
@@ -3571,7 +3565,7 @@
       <c r="E60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" ht="17.6" spans="1:6">
       <c r="A61" s="1" t="s">
@@ -3589,7 +3583,7 @@
       <c r="E61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" ht="17.6" spans="1:6">
       <c r="A62" s="1" t="s">
@@ -3607,7 +3601,7 @@
       <c r="E62" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" ht="17.6" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -3625,7 +3619,7 @@
       <c r="E63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" ht="17.6" spans="1:6">
       <c r="A64" s="1" t="s">
@@ -3643,7 +3637,7 @@
       <c r="E64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" ht="17" spans="1:6">
       <c r="A65" s="1" t="s">
@@ -3661,7 +3655,7 @@
       <c r="E65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" ht="17" spans="1:6">
       <c r="A66" s="1" t="s">
@@ -3679,7 +3673,7 @@
       <c r="E66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" ht="17.6" spans="1:6">
       <c r="A67" s="1" t="s">
@@ -3697,7 +3691,7 @@
       <c r="E67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" ht="17.6" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -3715,7 +3709,7 @@
       <c r="E68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" ht="17.6" spans="1:6">
       <c r="A69" s="1" t="s">
@@ -3733,7 +3727,7 @@
       <c r="E69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" ht="17.6" spans="1:6">
       <c r="A70" s="1" t="s">
@@ -3751,7 +3745,7 @@
       <c r="E70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" ht="17.6" spans="1:6">
       <c r="A71" s="1" t="s">
@@ -3769,7 +3763,7 @@
       <c r="E71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" ht="17.6" spans="1:6">
       <c r="A72" s="1" t="s">
@@ -3787,7 +3781,7 @@
       <c r="E72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" ht="17.6" spans="1:6">
       <c r="A73" s="1" t="s">
@@ -3805,7 +3799,7 @@
       <c r="E73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" ht="17.6" spans="1:6">
       <c r="A74" s="1" t="s">
@@ -3823,7 +3817,7 @@
       <c r="E74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" ht="17.6" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -3841,7 +3835,7 @@
       <c r="E75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" ht="17.6" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -3859,7 +3853,7 @@
       <c r="E76" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" ht="17.6" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -3877,7 +3871,7 @@
       <c r="E77" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" ht="17.6" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -3895,7 +3889,7 @@
       <c r="E78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -3913,7 +3907,7 @@
       <c r="E79" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" ht="17" spans="1:6">
       <c r="A80" s="1" t="s">
@@ -3931,7 +3925,7 @@
       <c r="E80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" ht="17.6" spans="1:6">
       <c r="A81" s="1" t="s">
@@ -3949,7 +3943,7 @@
       <c r="E81" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" ht="17.6" spans="1:6">
       <c r="A82" s="1" t="s">
@@ -3967,7 +3961,7 @@
       <c r="E82" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" ht="17.6" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -3985,7 +3979,7 @@
       <c r="E83" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" ht="17.6" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -4003,7 +3997,7 @@
       <c r="E84" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" ht="17.6" spans="1:6">
       <c r="A85" s="1" t="s">
@@ -4021,7 +4015,7 @@
       <c r="E85" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" ht="17.6" spans="1:6">
       <c r="A86" s="1" t="s">
@@ -4039,7 +4033,7 @@
       <c r="E86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" ht="17.6" spans="1:6">
       <c r="A87" s="1" t="s">
@@ -4057,7 +4051,7 @@
       <c r="E87" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" ht="17.6" spans="1:6">
       <c r="A88" s="1" t="s">
@@ -4075,7 +4069,7 @@
       <c r="E88" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" ht="17.6" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -4093,7 +4087,7 @@
       <c r="E89" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" ht="17.6" spans="1:6">
       <c r="A90" s="1" t="s">
@@ -4111,7 +4105,7 @@
       <c r="E90" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" ht="17.6" spans="1:6">
       <c r="A91" s="1" t="s">
@@ -4129,7 +4123,7 @@
       <c r="E91" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" ht="17.6" spans="1:6">
       <c r="A92" s="1" t="s">
@@ -4147,7 +4141,7 @@
       <c r="E92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" ht="17.6" spans="1:6">
       <c r="A93" s="1" t="s">
@@ -4165,7 +4159,7 @@
       <c r="E93" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" ht="17.6" spans="1:6">
       <c r="A94" s="1" t="s">
@@ -4183,7 +4177,7 @@
       <c r="E94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" ht="17.6" spans="1:6">
       <c r="A95" s="1" t="s">
@@ -4201,7 +4195,7 @@
       <c r="E95" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" ht="17.6" spans="1:6">
       <c r="A96" s="1" t="s">
@@ -4219,7 +4213,7 @@
       <c r="E96" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" ht="17.6" spans="1:6">
       <c r="A97" s="1" t="s">
@@ -4237,7 +4231,7 @@
       <c r="E97" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" ht="17.6" spans="1:6">
       <c r="A98" s="1" t="s">
@@ -4255,7 +4249,7 @@
       <c r="E98" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" ht="17.6" spans="1:6">
       <c r="A99" s="1" t="s">
@@ -4273,7 +4267,7 @@
       <c r="E99" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" ht="17.6" spans="1:6">
       <c r="A100" s="1" t="s">
@@ -4291,7 +4285,7 @@
       <c r="E100" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" ht="17.6" spans="1:6">
       <c r="A101" s="1" t="s">
@@ -4309,7 +4303,7 @@
       <c r="E101" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" ht="17.6" spans="1:6">
       <c r="A102" s="1" t="s">
@@ -4327,10 +4321,10 @@
       <c r="E102" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" ht="17.6" spans="1:6">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>331</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4345,7 +4339,7 @@
       <c r="E103" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" ht="17.6" spans="1:6">
       <c r="A104" s="1" t="s">
@@ -4363,7 +4357,7 @@
       <c r="E104" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" ht="17.6" spans="1:6">
       <c r="A105" s="1" t="s">
@@ -4381,7 +4375,7 @@
       <c r="E105" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" ht="17.6" spans="1:6">
       <c r="A106" s="1" t="s">
@@ -4399,7 +4393,7 @@
       <c r="E106" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" ht="17.6" spans="1:6">
       <c r="A107" s="1" t="s">
@@ -4417,7 +4411,7 @@
       <c r="E107" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" ht="17.6" spans="1:6">
       <c r="A108" s="1" t="s">
@@ -4435,7 +4429,7 @@
       <c r="E108" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" ht="17.6" spans="1:6">
       <c r="A109" s="1" t="s">
@@ -4453,7 +4447,7 @@
       <c r="E109" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" ht="17.6" spans="1:6">
       <c r="A110" s="1" t="s">
@@ -4471,7 +4465,7 @@
       <c r="E110" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" ht="17.6" spans="1:6">
       <c r="A111" s="1" t="s">
@@ -4489,7 +4483,7 @@
       <c r="E111" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" ht="17.6" spans="1:6">
       <c r="A112" s="1" t="s">
@@ -4507,7 +4501,7 @@
       <c r="E112" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" ht="17.6" spans="1:6">
       <c r="A113" s="1" t="s">
@@ -4525,7 +4519,7 @@
       <c r="E113" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" ht="17.6" spans="1:6">
       <c r="A114" s="1" t="s">
@@ -4543,7 +4537,7 @@
       <c r="E114" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" ht="17.6" spans="1:6">
       <c r="A115" s="1" t="s">
@@ -4561,7 +4555,7 @@
       <c r="E115" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" ht="17.6" spans="1:6">
       <c r="A116" s="1" t="s">
@@ -4579,7 +4573,7 @@
       <c r="E116" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" ht="17.6" spans="1:6">
       <c r="A117" s="1" t="s">
@@ -4597,7 +4591,7 @@
       <c r="E117" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" ht="17.6" spans="1:6">
       <c r="A118" s="1" t="s">
@@ -4615,7 +4609,7 @@
       <c r="E118" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" ht="17.6" spans="1:6">
       <c r="A119" s="1" t="s">
@@ -4633,7 +4627,7 @@
       <c r="E119" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" ht="17.6" spans="1:6">
       <c r="A120" s="1" t="s">
@@ -4651,7 +4645,7 @@
       <c r="E120" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" ht="17.6" spans="1:6">
       <c r="A121" s="1" t="s">
@@ -4669,7 +4663,7 @@
       <c r="E121" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" ht="17" spans="1:6">
       <c r="A122" s="1" t="s">
@@ -4687,7 +4681,7 @@
       <c r="E122" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" ht="17" spans="1:6">
       <c r="A123" s="1" t="s">
@@ -4705,7 +4699,7 @@
       <c r="E123" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" ht="17" spans="1:6">
       <c r="A124" s="1" t="s">
@@ -4723,7 +4717,7 @@
       <c r="E124" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" ht="17.6" spans="1:6">
       <c r="A125" s="1" t="s">
@@ -4741,7 +4735,7 @@
       <c r="E125" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" ht="17.6" spans="1:6">
       <c r="A126" s="1" t="s">
@@ -4759,7 +4753,7 @@
       <c r="E126" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" ht="17.6" spans="1:6">
       <c r="A127" s="1" t="s">
@@ -4777,7 +4771,7 @@
       <c r="E127" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" ht="17.6" spans="1:6">
       <c r="A128" s="1" t="s">
@@ -4795,7 +4789,7 @@
       <c r="E128" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" ht="17.6" spans="1:6">
       <c r="A129" s="1" t="s">
@@ -4813,7 +4807,7 @@
       <c r="E129" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F129" s="4"/>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" ht="34" spans="1:6">
       <c r="A130" s="1" t="s">
@@ -4831,7 +4825,7 @@
       <c r="E130" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F130" s="4"/>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" ht="34" spans="1:6">
       <c r="A131" s="1" t="s">
@@ -4849,7 +4843,7 @@
       <c r="E131" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" ht="34" spans="1:6">
       <c r="A132" s="1" t="s">
@@ -4867,7 +4861,7 @@
       <c r="E132" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" ht="34" spans="1:6">
       <c r="A133" s="1" t="s">
@@ -4885,7 +4879,7 @@
       <c r="E133" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F133" s="4"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" ht="17.6" spans="1:6">
       <c r="A134" s="1" t="s">
@@ -4903,7 +4897,7 @@
       <c r="E134" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" ht="17.6" spans="1:6">
       <c r="A135" s="1" t="s">
@@ -4921,7 +4915,7 @@
       <c r="E135" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" ht="51" spans="1:6">
       <c r="A136" s="1" t="s">
@@ -4939,7 +4933,7 @@
       <c r="E136" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" ht="17.6" spans="1:6">
       <c r="A137" s="1" t="s">
@@ -4957,7 +4951,7 @@
       <c r="E137" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="1"/>
     </row>
     <row r="138" ht="17.6" spans="1:6">
       <c r="A138" s="1" t="s">
@@ -4975,7 +4969,7 @@
       <c r="E138" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" ht="17.6" spans="1:6">
       <c r="A139" s="1" t="s">
@@ -4993,7 +4987,7 @@
       <c r="E139" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" ht="17.6" spans="1:6">
       <c r="A140" s="1" t="s">
@@ -5011,7 +5005,7 @@
       <c r="E140" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F140" s="4"/>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" ht="17.6" spans="1:6">
       <c r="A141" s="1" t="s">
@@ -5029,7 +5023,7 @@
       <c r="E141" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F141" s="4"/>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" ht="17.6" spans="1:6">
       <c r="A142" s="1" t="s">
@@ -5047,7 +5041,7 @@
       <c r="E142" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" ht="17.6" spans="1:6">
       <c r="A143" s="1" t="s">
@@ -5065,7 +5059,7 @@
       <c r="E143" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" ht="17.6" spans="1:6">
       <c r="A144" s="1" t="s">
@@ -5083,7 +5077,7 @@
       <c r="E144" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F144" s="4"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" ht="17.6" spans="1:6">
       <c r="A145" s="1" t="s">
@@ -5101,7 +5095,7 @@
       <c r="E145" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" ht="17.6" spans="1:6">
       <c r="A146" s="1" t="s">
@@ -5119,7 +5113,7 @@
       <c r="E146" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F146" s="4"/>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" ht="17.6" spans="1:6">
       <c r="A147" s="1" t="s">
@@ -5137,7 +5131,7 @@
       <c r="E147" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F147" s="4"/>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" ht="17.6" spans="1:6">
       <c r="A148" s="1" t="s">
@@ -5155,7 +5149,7 @@
       <c r="E148" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F148" s="4"/>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" ht="17.6" spans="1:6">
       <c r="A149" s="1" t="s">
@@ -5173,7 +5167,7 @@
       <c r="E149" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" ht="17.6" spans="1:6">
       <c r="A150" s="1" t="s">
@@ -5191,7 +5185,7 @@
       <c r="E150" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F150" s="4"/>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" ht="17.6" spans="1:6">
       <c r="A151" s="1" t="s">
@@ -5209,7 +5203,7 @@
       <c r="E151" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" ht="17" spans="1:6">
       <c r="A152" s="1" t="s">
@@ -5227,7 +5221,7 @@
       <c r="E152" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F152" s="4"/>
+      <c r="F152" s="1"/>
     </row>
     <row r="153" ht="17" spans="1:6">
       <c r="A153" s="1" t="s">
@@ -5245,7 +5239,7 @@
       <c r="E153" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" ht="17" spans="1:6">
       <c r="A154" s="1" t="s">
@@ -5263,223 +5257,223 @@
       <c r="E154" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F154" s="4"/>
+      <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
